--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282734.946148949</v>
+        <v>271640.9727291551</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17227919.55637612</v>
+        <v>17227919.55637613</v>
       </c>
     </row>
     <row r="9">
@@ -901,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>32.36675456763106</v>
+        <v>1.20136653522288</v>
       </c>
       <c r="J5" t="n">
-        <v>29.66398046922554</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.904140633628387</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>32.36675456763106</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>32.36675456763106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>32.36675456763106</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.6911936469389</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>30.02281559133009</v>
+        <v>28.50863742316941</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.16138275253149</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.3748212697451</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="T8" t="n">
-        <v>53.0525367669969</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>37.67771549725174</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>60.23221703791657</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>60.23221703791657</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>60.23221703791657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1262,13 +1262,13 @@
         <v>54.97016096830681</v>
       </c>
       <c r="S9" t="n">
-        <v>58.31459283660668</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="T9" t="n">
-        <v>60.23221703791657</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>60.23221703791657</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>58.31459283660651</v>
       </c>
     </row>
     <row r="10">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.10311736083155</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>57.25903180362973</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I12" t="n">
-        <v>38.28796328765949</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S12" t="n">
-        <v>69.07418587680172</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T12" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>94.72102273053245</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>33.94036506538239</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.76994589361107</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.17041917177101</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>25.6613755187815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>107.3621491644613</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>104.7600130816048</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>118.0923966805212</v>
       </c>
       <c r="H15" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28796328765949</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671228009</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>111.1613841420479</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>33.94036506538218</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11.76994589361107</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.17041917177101</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>107.3621491644613</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="H17" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083155</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>97.44988981605761</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671228009</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850113</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U18" t="n">
-        <v>94.72102273053186</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>107.3621491644613</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>33.94036506538212</v>
       </c>
       <c r="X19" t="n">
-        <v>33.94036506538207</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083155</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>121.8916316581077</v>
       </c>
       <c r="U20" t="n">
-        <v>57.25903180362963</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>121.8916316581077</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="21">
@@ -2159,70 +2159,70 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>119.3379681607525</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>121.8916316581077</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>107.3621491644613</v>
       </c>
       <c r="V21" t="n">
         <v>121.8916316581077</v>
       </c>
       <c r="W21" t="n">
-        <v>121.8916316581077</v>
+        <v>109.9158126618166</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.94036506538207</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>33.94036506538212</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>53.58409768342287</v>
+        <v>35.67367042416218</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.29067597793528</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="W23" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="X23" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>239.402451264814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U24" t="n">
-        <v>90.04316588672538</v>
+        <v>207.8863909897115</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>44.03526334378883</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.7622730182048</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>281.7654970375942</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>288.6958729703017</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.29067597793528</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.7992677899944</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>332.6368630202508</v>
@@ -2620,7 +2620,7 @@
         <v>332.6368630202508</v>
       </c>
       <c r="X26" t="n">
-        <v>160.8019416323539</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>111.1035312661029</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>32.43514599356567</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>207.8863909897115</v>
@@ -2696,7 +2696,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>116.1640051795757</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6014918580186</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>281.7654970375943</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>35.6736704241623</v>
+        <v>35.67367042416218</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>253.0222025461392</v>
       </c>
       <c r="V29" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>332.6368630202507</v>
       </c>
     </row>
     <row r="30">
@@ -2873,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>22.20466380561107</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.199447633798</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>170.5502999724113</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.8863909897115</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
@@ -2939,7 +2939,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.54827305741183</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.2172239801824</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>281.7654970375942</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>332.6368630202509</v>
+        <v>292.9865489482368</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="E32" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="Y32" t="n">
-        <v>292.9865489482368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.43514599356567</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>32.43514599356568</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.91589971564393</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>13.96650363601579</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.8830936859346</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>281.7654970375943</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>288.6958729703014</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="G35" t="n">
-        <v>292.9865489482369</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.29067597793528</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>117.7021820926707</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>71.68038581206892</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>18.83226793232837</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.2172239801824</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>52.54827305741183</v>
       </c>
       <c r="W37" t="n">
-        <v>18.44594531021025</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>288.6958729703017</v>
       </c>
       <c r="C38" t="n">
-        <v>326.9278597818368</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="F38" t="n">
-        <v>332.6368630202507</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="G38" t="n">
-        <v>332.6368630202507</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="H38" t="n">
-        <v>298.6955521866505</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.29067597793528</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3584,19 +3584,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>71.36897949736623</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>90.35457220142813</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>1.268398989460175</v>
       </c>
       <c r="G40" t="n">
-        <v>126.0128215984375</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.29067597793528</v>
+        <v>4.290675977935308</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.7992677899944</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>288.6958729703017</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>332.6368630202509</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="X41" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.6368630202509</v>
+        <v>76.89660518030666</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>111.5334592785426</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>96.6616648113544</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8863909897115</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -3884,7 +3884,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>281.7654970375943</v>
+        <v>281.7654970375941</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>74.88204700116552</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="G44" t="n">
-        <v>81.18728115824253</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>298.6955521866505</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.290675977935308</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>115.5705294868528</v>
       </c>
       <c r="T44" t="n">
         <v>211.7992677899944</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>9.581297631608454</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.85384836195699</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>90.04316588672538</v>
+        <v>207.8863909897115</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.268398989460171</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>281.7654970375941</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="C5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="D5" t="n">
-        <v>65.24664848344744</v>
+        <v>69.19022488105185</v>
       </c>
       <c r="E5" t="n">
-        <v>65.24664848344744</v>
+        <v>69.19022488105185</v>
       </c>
       <c r="F5" t="n">
-        <v>65.24664848344744</v>
+        <v>36.49653339859626</v>
       </c>
       <c r="G5" t="n">
-        <v>65.24664848344744</v>
+        <v>3.802841916140665</v>
       </c>
       <c r="H5" t="n">
-        <v>65.24664848344744</v>
+        <v>3.802841916140665</v>
       </c>
       <c r="I5" t="n">
-        <v>32.55295700099183</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J5" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K5" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L5" t="n">
         <v>12.88684020135377</v>
       </c>
       <c r="M5" t="n">
-        <v>44.92992722330852</v>
+        <v>44.9299272233085</v>
       </c>
       <c r="N5" t="n">
-        <v>76.97301424526327</v>
+        <v>76.97301424526322</v>
       </c>
       <c r="O5" t="n">
-        <v>101.8839163635075</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="P5" t="n">
-        <v>101.8839163635075</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="Q5" t="n">
-        <v>97.94033996590306</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="R5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="S5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="T5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="U5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="V5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="W5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="X5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="Y5" t="n">
-        <v>65.24664848344744</v>
+        <v>101.8839163635074</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.1019851871591</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="C6" t="n">
-        <v>109.1019851871591</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="D6" t="n">
-        <v>109.1019851871591</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="E6" t="n">
-        <v>109.1019851871591</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="F6" t="n">
-        <v>109.1019851871591</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="G6" t="n">
-        <v>76.40829370470348</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="H6" t="n">
-        <v>43.71460222224786</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="I6" t="n">
-        <v>32.91541672028937</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="J6" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K6" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L6" t="n">
-        <v>14.65682457272202</v>
+        <v>14.65682457272199</v>
       </c>
       <c r="M6" t="n">
-        <v>46.69991159467677</v>
+        <v>46.69991159467671</v>
       </c>
       <c r="N6" t="n">
-        <v>78.74299861663152</v>
+        <v>78.74299861663144</v>
       </c>
       <c r="O6" t="n">
-        <v>110.7860856385863</v>
+        <v>110.7860856385862</v>
       </c>
       <c r="P6" t="n">
-        <v>129.4670182705242</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Q6" t="n">
-        <v>109.1019851871591</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="R6" t="n">
-        <v>109.1019851871591</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="S6" t="n">
-        <v>109.1019851871591</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="T6" t="n">
-        <v>109.1019851871591</v>
+        <v>96.77332678806854</v>
       </c>
       <c r="U6" t="n">
-        <v>109.1019851871591</v>
+        <v>64.07963530561295</v>
       </c>
       <c r="V6" t="n">
-        <v>109.1019851871591</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="W6" t="n">
-        <v>109.1019851871591</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="X6" t="n">
-        <v>109.1019851871591</v>
+        <v>31.38594382315736</v>
       </c>
       <c r="Y6" t="n">
-        <v>109.1019851871591</v>
+        <v>31.38594382315736</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="C7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="E7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="F7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="G7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="M7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="N7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="O7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="P7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="R7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="S7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="T7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="U7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="V7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="W7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="X7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.589340365410485</v>
+        <v>2.589340365410483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="C8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="D8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="E8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="F8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="G8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="K8" t="n">
-        <v>13.7693228713395</v>
+        <v>13.76932287133946</v>
       </c>
       <c r="L8" t="n">
-        <v>48.85965936111259</v>
+        <v>48.85965936111248</v>
       </c>
       <c r="M8" t="n">
-        <v>108.48955422865</v>
+        <v>108.4895542286498</v>
       </c>
       <c r="N8" t="n">
-        <v>168.1194490961874</v>
+        <v>168.1194490961872</v>
       </c>
       <c r="O8" t="n">
-        <v>219.5012987724245</v>
+        <v>219.5012987724243</v>
       </c>
       <c r="P8" t="n">
-        <v>240.9288681516663</v>
+        <v>240.928868151666</v>
       </c>
       <c r="Q8" t="n">
-        <v>240.9288681516663</v>
+        <v>225.398745656974</v>
       </c>
       <c r="R8" t="n">
-        <v>240.9288681516663</v>
+        <v>164.5581223863512</v>
       </c>
       <c r="S8" t="n">
-        <v>240.9288681516663</v>
+        <v>103.7174991157285</v>
       </c>
       <c r="T8" t="n">
-        <v>187.3404471749017</v>
+        <v>42.87687584510579</v>
       </c>
       <c r="U8" t="n">
-        <v>187.3404471749017</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="V8" t="n">
-        <v>187.3404471749017</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="W8" t="n">
-        <v>126.4998239042789</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="X8" t="n">
-        <v>65.65920063365613</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="C9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="D9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="E9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="F9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="G9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="K9" t="n">
-        <v>4.818577363033326</v>
+        <v>18.39246347380759</v>
       </c>
       <c r="L9" t="n">
-        <v>53.17999411140867</v>
+        <v>66.75388022218293</v>
       </c>
       <c r="M9" t="n">
-        <v>87.63282518642713</v>
+        <v>126.3837750897203</v>
       </c>
       <c r="N9" t="n">
-        <v>147.2627200539645</v>
+        <v>147.2627200539643</v>
       </c>
       <c r="O9" t="n">
-        <v>206.1961156134108</v>
+        <v>206.1961156134105</v>
       </c>
       <c r="P9" t="n">
-        <v>240.9288681516663</v>
+        <v>240.928868151666</v>
       </c>
       <c r="Q9" t="n">
-        <v>240.9288681516663</v>
+        <v>240.928868151666</v>
       </c>
       <c r="R9" t="n">
-        <v>185.4034530321645</v>
+        <v>185.4034530321642</v>
       </c>
       <c r="S9" t="n">
-        <v>126.4998239042789</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="T9" t="n">
-        <v>65.65920063365613</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="U9" t="n">
-        <v>4.818577363033326</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="V9" t="n">
-        <v>4.818577363033326</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="W9" t="n">
-        <v>4.818577363033326</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="X9" t="n">
-        <v>4.818577363033326</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="C10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="D10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="E10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="F10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="G10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="K10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="L10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="M10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="N10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="O10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="P10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="R10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="S10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="T10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="U10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="V10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="W10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="X10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.818577363033326</v>
+        <v>4.81857736303332</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.751330532648618</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C11" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="D11" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="E11" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="F11" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="G11" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H11" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I11" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J11" t="n">
-        <v>13.6719125444102</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K11" t="n">
-        <v>52.52788553388297</v>
+        <v>52.52788553388308</v>
       </c>
       <c r="L11" t="n">
-        <v>124.7183011151466</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M11" t="n">
-        <v>225.6291823919085</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N11" t="n">
-        <v>331.1718826730481</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O11" t="n">
-        <v>422.1649418990619</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P11" t="n">
-        <v>477.3997621913164</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R11" t="n">
-        <v>436.9573171770455</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S11" t="n">
-        <v>313.8344569163306</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T11" t="n">
-        <v>190.7115966556158</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U11" t="n">
-        <v>67.58873639490088</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V11" t="n">
-        <v>9.751330532648618</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="W11" t="n">
-        <v>9.751330532648618</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="X11" t="n">
-        <v>9.751330532648618</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.751330532648618</v>
+        <v>364.4436663717165</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.42604092422386</v>
+        <v>223.7883720366881</v>
       </c>
       <c r="C12" t="n">
-        <v>48.42604092422386</v>
+        <v>223.7883720366881</v>
       </c>
       <c r="D12" t="n">
-        <v>48.42604092422386</v>
+        <v>223.7883720366881</v>
       </c>
       <c r="E12" t="n">
-        <v>48.42604092422386</v>
+        <v>100.665511775973</v>
       </c>
       <c r="F12" t="n">
-        <v>48.42604092422386</v>
+        <v>100.665511775973</v>
       </c>
       <c r="G12" t="n">
-        <v>48.42604092422386</v>
+        <v>100.665511775973</v>
       </c>
       <c r="H12" t="n">
-        <v>48.42604092422386</v>
+        <v>19.84879888742434</v>
       </c>
       <c r="I12" t="n">
-        <v>9.751330532648618</v>
+        <v>19.84879888742434</v>
       </c>
       <c r="J12" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K12" t="n">
-        <v>43.63722270065728</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L12" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M12" t="n">
-        <v>220.1999092241155</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1250381905285</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O12" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P12" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q12" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R12" t="n">
-        <v>487.5665266324309</v>
+        <v>440.009574957178</v>
       </c>
       <c r="S12" t="n">
-        <v>417.7946217063685</v>
+        <v>319.4661727745997</v>
       </c>
       <c r="T12" t="n">
-        <v>294.6717614456536</v>
+        <v>319.4661727745997</v>
       </c>
       <c r="U12" t="n">
-        <v>171.5489011849387</v>
+        <v>319.4661727745997</v>
       </c>
       <c r="V12" t="n">
-        <v>48.42604092422386</v>
+        <v>319.4661727745997</v>
       </c>
       <c r="W12" t="n">
-        <v>48.42604092422386</v>
+        <v>223.7883720366881</v>
       </c>
       <c r="X12" t="n">
-        <v>48.42604092422386</v>
+        <v>223.7883720366881</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.42604092422386</v>
+        <v>223.7883720366881</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="C13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="D13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="E13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="F13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="G13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K13" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L13" t="n">
-        <v>17.57578586549604</v>
+        <v>17.57578586549614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.94346090360948</v>
+        <v>27.94346090360967</v>
       </c>
       <c r="N13" t="n">
-        <v>43.17200764107591</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O13" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="P13" t="n">
-        <v>32.14569333241731</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="R13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="S13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="T13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="U13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="V13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="W13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="X13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838843</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.5665266324305</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="C14" t="n">
-        <v>487.5665266324305</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="D14" t="n">
-        <v>487.5665266324305</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="E14" t="n">
-        <v>461.6459453003279</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="F14" t="n">
-        <v>338.5230850396131</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4002247788983</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="H14" t="n">
-        <v>92.27736451818356</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="J14" t="n">
-        <v>13.67191254441005</v>
+        <v>13.67191254441002</v>
       </c>
       <c r="K14" t="n">
-        <v>52.5278855338828</v>
+        <v>52.52788553388291</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151464</v>
+        <v>124.7183011151466</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919084</v>
+        <v>225.6291823919086</v>
       </c>
       <c r="N14" t="n">
-        <v>331.171882673048</v>
+        <v>331.1718826730483</v>
       </c>
       <c r="O14" t="n">
-        <v>422.1649418990618</v>
+        <v>422.1649418990622</v>
       </c>
       <c r="P14" t="n">
-        <v>477.399762191316</v>
+        <v>477.3997621913165</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.566526632431</v>
       </c>
       <c r="R14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.566526632431</v>
       </c>
       <c r="S14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.566526632431</v>
       </c>
       <c r="T14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.566526632431</v>
       </c>
       <c r="U14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.566526632431</v>
       </c>
       <c r="V14" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717161</v>
       </c>
       <c r="W14" t="n">
-        <v>487.5665266324305</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="X14" t="n">
-        <v>487.5665266324305</v>
+        <v>118.1979458502863</v>
       </c>
       <c r="Y14" t="n">
-        <v>487.5665266324305</v>
+        <v>9.751330532648621</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>487.5665266324308</v>
+        <v>252.1594399656072</v>
       </c>
       <c r="C15" t="n">
-        <v>487.5665266324308</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="D15" t="n">
-        <v>487.5665266324308</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="E15" t="n">
-        <v>364.443666371716</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F15" t="n">
-        <v>258.625471339792</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G15" t="n">
-        <v>139.3402221675483</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="H15" t="n">
-        <v>58.52350927899963</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="I15" t="n">
-        <v>19.84879888742438</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="J15" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065725</v>
+        <v>43.63722270065731</v>
       </c>
       <c r="L15" t="n">
-        <v>119.3106382502219</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241156</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905287</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009621</v>
       </c>
       <c r="P15" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561085</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R15" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S15" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="T15" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="U15" t="n">
-        <v>487.5665266324308</v>
+        <v>375.2823002263221</v>
       </c>
       <c r="V15" t="n">
-        <v>487.5665266324308</v>
+        <v>375.2823002263221</v>
       </c>
       <c r="W15" t="n">
-        <v>487.5665266324308</v>
+        <v>375.2823002263221</v>
       </c>
       <c r="X15" t="n">
-        <v>487.5665266324308</v>
+        <v>252.1594399656072</v>
       </c>
       <c r="Y15" t="n">
-        <v>487.5665266324308</v>
+        <v>252.1594399656072</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="C16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="D16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="E16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="F16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="G16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="H16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="I16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="J16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="K16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="L16" t="n">
-        <v>17.57578586549603</v>
+        <v>17.57578586549607</v>
       </c>
       <c r="M16" t="n">
-        <v>27.94346090360948</v>
+        <v>27.94346090360954</v>
       </c>
       <c r="N16" t="n">
-        <v>43.17200764107591</v>
+        <v>43.172007641076</v>
       </c>
       <c r="O16" t="n">
-        <v>44.03452756838808</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="P16" t="n">
-        <v>32.1456933324173</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="R16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="S16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="T16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="U16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="V16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="W16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="X16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.751330532648609</v>
+        <v>44.0345275683882</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>215.4002247788983</v>
+        <v>487.566526632431</v>
       </c>
       <c r="C17" t="n">
-        <v>215.4002247788983</v>
+        <v>487.566526632431</v>
       </c>
       <c r="D17" t="n">
-        <v>215.4002247788983</v>
+        <v>379.1199113147933</v>
       </c>
       <c r="E17" t="n">
-        <v>215.4002247788983</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="F17" t="n">
-        <v>215.4002247788983</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="G17" t="n">
-        <v>215.4002247788983</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="H17" t="n">
-        <v>92.27736451818356</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="J17" t="n">
-        <v>13.67191254441008</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388282</v>
+        <v>52.52788553388285</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151466</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919083</v>
+        <v>225.6291823919085</v>
       </c>
       <c r="N17" t="n">
-        <v>331.1718826730479</v>
+        <v>331.1718826730481</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990617</v>
+        <v>422.1649418990621</v>
       </c>
       <c r="P17" t="n">
-        <v>477.399762191316</v>
+        <v>477.3997621913166</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324305</v>
+        <v>487.566526632431</v>
       </c>
       <c r="R17" t="n">
-        <v>436.9573171770451</v>
+        <v>487.566526632431</v>
       </c>
       <c r="S17" t="n">
-        <v>436.9573171770451</v>
+        <v>487.566526632431</v>
       </c>
       <c r="T17" t="n">
-        <v>436.9573171770451</v>
+        <v>487.566526632431</v>
       </c>
       <c r="U17" t="n">
-        <v>338.5230850396131</v>
+        <v>487.566526632431</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4002247788983</v>
+        <v>487.566526632431</v>
       </c>
       <c r="W17" t="n">
-        <v>215.4002247788983</v>
+        <v>487.566526632431</v>
       </c>
       <c r="X17" t="n">
-        <v>215.4002247788983</v>
+        <v>487.566526632431</v>
       </c>
       <c r="Y17" t="n">
-        <v>215.4002247788983</v>
+        <v>487.566526632431</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.6655117759731</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="C18" t="n">
-        <v>100.6655117759731</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="D18" t="n">
-        <v>100.6655117759731</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="E18" t="n">
-        <v>100.6655117759731</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="F18" t="n">
-        <v>100.6655117759731</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="G18" t="n">
-        <v>100.6655117759731</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="H18" t="n">
-        <v>19.84879888742438</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="I18" t="n">
-        <v>19.84879888742438</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065725</v>
+        <v>43.63722270065729</v>
       </c>
       <c r="L18" t="n">
-        <v>119.3106382502219</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241156</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905286</v>
       </c>
       <c r="O18" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009621</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561083</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.5665266324308</v>
+        <v>487.566526632431</v>
       </c>
       <c r="R18" t="n">
-        <v>440.0095749571771</v>
+        <v>487.566526632431</v>
       </c>
       <c r="S18" t="n">
-        <v>319.4661727745988</v>
+        <v>487.566526632431</v>
       </c>
       <c r="T18" t="n">
-        <v>196.343312513884</v>
+        <v>364.4436663717161</v>
       </c>
       <c r="U18" t="n">
-        <v>100.6655117759731</v>
+        <v>364.4436663717161</v>
       </c>
       <c r="V18" t="n">
-        <v>100.6655117759731</v>
+        <v>364.4436663717161</v>
       </c>
       <c r="W18" t="n">
-        <v>100.6655117759731</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="X18" t="n">
-        <v>100.6655117759731</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="Y18" t="n">
-        <v>100.6655117759731</v>
+        <v>255.9970510540784</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="C19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="D19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="E19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="J19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="K19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="L19" t="n">
-        <v>17.57578586549603</v>
+        <v>17.57578586549606</v>
       </c>
       <c r="M19" t="n">
-        <v>27.94346090360948</v>
+        <v>27.94346090360951</v>
       </c>
       <c r="N19" t="n">
-        <v>43.17200764107591</v>
+        <v>43.17200764107596</v>
       </c>
       <c r="O19" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="P19" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="R19" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="S19" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="T19" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="U19" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="V19" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="W19" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="X19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648621</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.751330532648614</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="C20" t="n">
         <v>9.751330532648614</v>
@@ -5752,52 +5752,52 @@
         <v>9.751330532648614</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254441019</v>
+        <v>13.67191254441011</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388297</v>
+        <v>52.52788553388289</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151466</v>
+        <v>124.7183011151465</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919085</v>
+        <v>225.6291823919086</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730481</v>
+        <v>331.1718826730482</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990619</v>
+        <v>422.1649418990621</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913161</v>
+        <v>477.3997621913163</v>
       </c>
       <c r="Q20" t="n">
         <v>487.5665266324307</v>
       </c>
       <c r="R20" t="n">
-        <v>436.9573171770453</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S20" t="n">
-        <v>313.8344569163305</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T20" t="n">
-        <v>190.7115966556156</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="U20" t="n">
-        <v>132.8741907933635</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="V20" t="n">
-        <v>9.751330532648614</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="W20" t="n">
-        <v>9.751330532648614</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="X20" t="n">
-        <v>9.751330532648614</v>
+        <v>241.320806111001</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.751330532648614</v>
+        <v>118.1979458502862</v>
       </c>
     </row>
     <row r="21">
@@ -5834,49 +5834,49 @@
         <v>9.751330532648614</v>
       </c>
       <c r="K21" t="n">
-        <v>43.63722270065726</v>
+        <v>43.63722270065728</v>
       </c>
       <c r="L21" t="n">
-        <v>119.3106382502219</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241155</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905286</v>
       </c>
       <c r="O21" t="n">
-        <v>421.9866026009618</v>
+        <v>421.986602600962</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561083</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324308</v>
+        <v>487.566526632431</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324308</v>
+        <v>487.566526632431</v>
       </c>
       <c r="S21" t="n">
-        <v>487.5665266324308</v>
+        <v>367.0231244498526</v>
       </c>
       <c r="T21" t="n">
-        <v>487.5665266324308</v>
+        <v>367.0231244498526</v>
       </c>
       <c r="U21" t="n">
-        <v>379.1199113147931</v>
+        <v>243.9002641891378</v>
       </c>
       <c r="V21" t="n">
-        <v>255.9970510540783</v>
+        <v>120.7774039284229</v>
       </c>
       <c r="W21" t="n">
-        <v>132.8741907933635</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="X21" t="n">
-        <v>132.8741907933635</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="Y21" t="n">
-        <v>132.8741907933635</v>
+        <v>9.751330532648614</v>
       </c>
     </row>
     <row r="22">
@@ -5916,37 +5916,37 @@
         <v>9.751330532648614</v>
       </c>
       <c r="L22" t="n">
-        <v>17.57578586549603</v>
+        <v>17.57578586549605</v>
       </c>
       <c r="M22" t="n">
-        <v>27.94346090360948</v>
+        <v>27.94346090360951</v>
       </c>
       <c r="N22" t="n">
-        <v>43.17200764107591</v>
+        <v>43.17200764107595</v>
       </c>
       <c r="O22" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="P22" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="R22" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="S22" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="T22" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="U22" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="V22" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="W22" t="n">
         <v>9.751330532648614</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.7363002369967</v>
+        <v>398.6417909046634</v>
       </c>
       <c r="C23" t="n">
-        <v>80.7363002369967</v>
+        <v>398.6417909046634</v>
       </c>
       <c r="D23" t="n">
-        <v>80.7363002369967</v>
+        <v>398.6417909046634</v>
       </c>
       <c r="E23" t="n">
-        <v>80.7363002369967</v>
+        <v>398.6417909046634</v>
       </c>
       <c r="F23" t="n">
-        <v>80.7363002369967</v>
+        <v>398.6417909046634</v>
       </c>
       <c r="G23" t="n">
-        <v>80.7363002369967</v>
+        <v>62.64495957107681</v>
       </c>
       <c r="H23" t="n">
-        <v>80.7363002369967</v>
+        <v>62.64495957107681</v>
       </c>
       <c r="I23" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J23" t="n">
-        <v>91.81170871208289</v>
+        <v>91.81170871208255</v>
       </c>
       <c r="K23" t="n">
-        <v>222.5107827646404</v>
+        <v>222.51078276464</v>
       </c>
       <c r="L23" t="n">
         <v>408.6406865371935</v>
       </c>
       <c r="M23" t="n">
-        <v>636.3312022157979</v>
+        <v>636.3312022157977</v>
       </c>
       <c r="N23" t="n">
-        <v>870.7049639274289</v>
+        <v>870.7049639274287</v>
       </c>
       <c r="O23" t="n">
         <v>1083.349541243458</v>
       </c>
       <c r="P23" t="n">
-        <v>1242.411117718199</v>
+        <v>1242.411117718198</v>
       </c>
       <c r="Q23" t="n">
         <v>1330.547452081003</v>
       </c>
       <c r="R23" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="S23" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="T23" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="U23" t="n">
-        <v>1330.547452081003</v>
+        <v>1070.635453571837</v>
       </c>
       <c r="V23" t="n">
-        <v>1330.547452081003</v>
+        <v>734.63862223825</v>
       </c>
       <c r="W23" t="n">
-        <v>994.5506207474166</v>
+        <v>398.6417909046634</v>
       </c>
       <c r="X23" t="n">
-        <v>658.5537894138299</v>
+        <v>398.6417909046634</v>
       </c>
       <c r="Y23" t="n">
-        <v>416.7331315705834</v>
+        <v>398.6417909046634</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.61094904162007</v>
+        <v>550.6770459998154</v>
       </c>
       <c r="C24" t="n">
-        <v>26.61094904162007</v>
+        <v>400.0228155599077</v>
       </c>
       <c r="D24" t="n">
-        <v>26.61094904162007</v>
+        <v>269.933848181388</v>
       </c>
       <c r="E24" t="n">
-        <v>26.61094904162007</v>
+        <v>269.933848181388</v>
       </c>
       <c r="F24" t="n">
-        <v>26.61094904162007</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="G24" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H24" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I24" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J24" t="n">
-        <v>53.21247430938207</v>
+        <v>53.21247430938206</v>
       </c>
       <c r="K24" t="n">
         <v>149.4793540917939</v>
@@ -6095,25 +6095,25 @@
         <v>1090.638518367583</v>
       </c>
       <c r="S24" t="n">
-        <v>1090.638518367583</v>
+        <v>977.4163937835644</v>
       </c>
       <c r="T24" t="n">
-        <v>1090.638518367583</v>
+        <v>805.1433635084015</v>
       </c>
       <c r="U24" t="n">
-        <v>999.6858255527086</v>
+        <v>595.1571099834405</v>
       </c>
       <c r="V24" t="n">
-        <v>777.1458239237757</v>
+        <v>550.6770459998154</v>
       </c>
       <c r="W24" t="n">
-        <v>547.0285780570625</v>
+        <v>550.6770459998154</v>
       </c>
       <c r="X24" t="n">
-        <v>357.7215004070742</v>
+        <v>550.6770459998154</v>
       </c>
       <c r="Y24" t="n">
-        <v>178.4072834825814</v>
+        <v>550.6770459998154</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="C25" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="D25" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="E25" t="n">
-        <v>1174.988639940206</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="F25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="G25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J25" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="K25" t="n">
-        <v>1074.487680615031</v>
+        <v>55.16279074493477</v>
       </c>
       <c r="L25" t="n">
-        <v>1130.462976446664</v>
+        <v>111.1380865765676</v>
       </c>
       <c r="M25" t="n">
-        <v>1191.598961544735</v>
+        <v>172.2740716746392</v>
       </c>
       <c r="N25" t="n">
-        <v>1256.388661401686</v>
+        <v>237.0637715315905</v>
       </c>
       <c r="O25" t="n">
-        <v>1303.028927939927</v>
+        <v>283.7040380698306</v>
       </c>
       <c r="P25" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="Q25" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="R25" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="S25" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="T25" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="U25" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="V25" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="W25" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="X25" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="Y25" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26.61094904162007</v>
+        <v>318.2229419409147</v>
       </c>
       <c r="C26" t="n">
-        <v>26.61094904162007</v>
+        <v>318.2229419409147</v>
       </c>
       <c r="D26" t="n">
         <v>26.61094904162007</v>
@@ -6232,13 +6232,13 @@
         <v>222.5107827646405</v>
       </c>
       <c r="L26" t="n">
-        <v>408.640686537194</v>
+        <v>408.6406865371939</v>
       </c>
       <c r="M26" t="n">
-        <v>636.3312022157984</v>
+        <v>636.3312022157982</v>
       </c>
       <c r="N26" t="n">
-        <v>870.7049639274294</v>
+        <v>870.7049639274292</v>
       </c>
       <c r="O26" t="n">
         <v>1083.349541243459</v>
@@ -6250,28 +6250,28 @@
         <v>1330.547452081003</v>
       </c>
       <c r="R26" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="S26" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="T26" t="n">
-        <v>1116.608797747675</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="U26" t="n">
-        <v>861.0308153778378</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="V26" t="n">
-        <v>525.0339840442512</v>
+        <v>990.2166046080881</v>
       </c>
       <c r="W26" t="n">
-        <v>189.0371527106644</v>
+        <v>654.2197732745014</v>
       </c>
       <c r="X26" t="n">
-        <v>26.61094904162007</v>
+        <v>318.2229419409147</v>
       </c>
       <c r="Y26" t="n">
-        <v>26.61094904162007</v>
+        <v>318.2229419409147</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.61094904162007</v>
+        <v>289.4909686392076</v>
       </c>
       <c r="C27" t="n">
-        <v>26.61094904162007</v>
+        <v>138.8367381992998</v>
       </c>
       <c r="D27" t="n">
-        <v>26.61094904162007</v>
+        <v>138.8367381992998</v>
       </c>
       <c r="E27" t="n">
         <v>26.61094904162007</v>
@@ -6335,22 +6335,22 @@
         <v>1090.638518367583</v>
       </c>
       <c r="T27" t="n">
-        <v>1057.875744636708</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="U27" t="n">
-        <v>847.8894911117472</v>
+        <v>880.6522648426217</v>
       </c>
       <c r="V27" t="n">
-        <v>625.3494894828143</v>
+        <v>658.1122632136887</v>
       </c>
       <c r="W27" t="n">
-        <v>395.2322436161012</v>
+        <v>658.1122632136887</v>
       </c>
       <c r="X27" t="n">
-        <v>205.9251659661128</v>
+        <v>468.8051855637004</v>
       </c>
       <c r="Y27" t="n">
-        <v>26.61094904162007</v>
+        <v>289.4909686392076</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.61094904162007</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="C28" t="n">
-        <v>26.61094904162007</v>
+        <v>193.8851832416389</v>
       </c>
       <c r="D28" t="n">
-        <v>26.61094904162007</v>
+        <v>193.8851832416389</v>
       </c>
       <c r="E28" t="n">
-        <v>26.61094904162007</v>
+        <v>193.8851832416389</v>
       </c>
       <c r="F28" t="n">
-        <v>26.61094904162007</v>
+        <v>193.8851832416389</v>
       </c>
       <c r="G28" t="n">
         <v>26.61094904162007</v>
@@ -6417,19 +6417,19 @@
         <v>311.2225622109073</v>
       </c>
       <c r="U28" t="n">
-        <v>26.61094904162007</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="V28" t="n">
-        <v>26.61094904162007</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="W28" t="n">
-        <v>26.61094904162007</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="X28" t="n">
-        <v>26.61094904162007</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.61094904162007</v>
+        <v>311.2225622109073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>398.6417909046636</v>
+        <v>734.63862223825</v>
       </c>
       <c r="C29" t="n">
-        <v>398.6417909046636</v>
+        <v>734.63862223825</v>
       </c>
       <c r="D29" t="n">
-        <v>398.6417909046636</v>
+        <v>734.63862223825</v>
       </c>
       <c r="E29" t="n">
-        <v>398.6417909046636</v>
+        <v>398.6417909046634</v>
       </c>
       <c r="F29" t="n">
-        <v>398.6417909046636</v>
+        <v>398.6417909046634</v>
       </c>
       <c r="G29" t="n">
-        <v>62.64495957107692</v>
+        <v>62.64495957107681</v>
       </c>
       <c r="H29" t="n">
-        <v>62.64495957107692</v>
+        <v>62.64495957107681</v>
       </c>
       <c r="I29" t="n">
         <v>26.61094904162006</v>
@@ -6481,34 +6481,34 @@
         <v>1083.349541243458</v>
       </c>
       <c r="P29" t="n">
-        <v>1242.411117718199</v>
+        <v>1242.411117718198</v>
       </c>
       <c r="Q29" t="n">
         <v>1330.547452081003</v>
       </c>
       <c r="R29" t="n">
-        <v>1326.213435941675</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="S29" t="n">
-        <v>1326.213435941675</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="T29" t="n">
-        <v>1326.213435941675</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="U29" t="n">
         <v>1070.635453571837</v>
       </c>
       <c r="V29" t="n">
-        <v>734.6386222382503</v>
+        <v>1070.635453571837</v>
       </c>
       <c r="W29" t="n">
-        <v>398.6417909046636</v>
+        <v>1070.635453571837</v>
       </c>
       <c r="X29" t="n">
-        <v>398.6417909046636</v>
+        <v>1070.635453571837</v>
       </c>
       <c r="Y29" t="n">
-        <v>398.6417909046636</v>
+        <v>734.63862223825</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26.61094904162006</v>
+        <v>448.6741932219483</v>
       </c>
       <c r="C30" t="n">
-        <v>26.61094904162006</v>
+        <v>298.0199627820405</v>
       </c>
       <c r="D30" t="n">
-        <v>26.61094904162006</v>
+        <v>167.9309954035209</v>
       </c>
       <c r="E30" t="n">
-        <v>26.61094904162006</v>
+        <v>167.9309954035209</v>
       </c>
       <c r="F30" t="n">
-        <v>26.61094904162006</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="G30" t="n">
         <v>26.61094904162006</v>
@@ -6542,7 +6542,7 @@
         <v>26.61094904162006</v>
       </c>
       <c r="J30" t="n">
-        <v>53.21247430938207</v>
+        <v>53.21247430938206</v>
       </c>
       <c r="K30" t="n">
         <v>149.4793540917939</v>
@@ -6569,25 +6569,25 @@
         <v>1090.638518367583</v>
       </c>
       <c r="S30" t="n">
-        <v>1007.608773282938</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T30" t="n">
-        <v>835.3357430077754</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="U30" t="n">
-        <v>625.3494894828143</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="V30" t="n">
-        <v>625.3494894828143</v>
+        <v>868.0985167386498</v>
       </c>
       <c r="W30" t="n">
-        <v>395.2322436161012</v>
+        <v>637.9812708719367</v>
       </c>
       <c r="X30" t="n">
-        <v>205.9251659661128</v>
+        <v>448.6741932219483</v>
       </c>
       <c r="Y30" t="n">
-        <v>26.61094904162006</v>
+        <v>448.6741932219483</v>
       </c>
     </row>
     <row r="31">
@@ -6651,22 +6651,22 @@
         <v>311.2225622109072</v>
       </c>
       <c r="T31" t="n">
-        <v>79.69001273597544</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="U31" t="n">
-        <v>79.69001273597544</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="V31" t="n">
-        <v>79.69001273597544</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="W31" t="n">
-        <v>79.69001273597544</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="X31" t="n">
-        <v>79.69001273597544</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.69001273597544</v>
+        <v>26.61094904162006</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>698.6046117087936</v>
+        <v>994.5506207474166</v>
       </c>
       <c r="C32" t="n">
-        <v>362.6077803752069</v>
+        <v>698.6046117087935</v>
       </c>
       <c r="D32" t="n">
-        <v>362.6077803752069</v>
+        <v>362.6077803752068</v>
       </c>
       <c r="E32" t="n">
-        <v>26.61094904162007</v>
+        <v>362.6077803752068</v>
       </c>
       <c r="F32" t="n">
         <v>26.61094904162007</v>
@@ -6700,22 +6700,22 @@
         <v>26.61094904162007</v>
       </c>
       <c r="J32" t="n">
-        <v>91.81170871208246</v>
+        <v>91.81170871208292</v>
       </c>
       <c r="K32" t="n">
-        <v>222.51078276464</v>
+        <v>222.5107827646405</v>
       </c>
       <c r="L32" t="n">
-        <v>408.6406865371931</v>
+        <v>408.640686537194</v>
       </c>
       <c r="M32" t="n">
-        <v>636.3312022157975</v>
+        <v>636.3312022157984</v>
       </c>
       <c r="N32" t="n">
-        <v>870.7049639274285</v>
+        <v>870.7049639274294</v>
       </c>
       <c r="O32" t="n">
-        <v>1083.349541243458</v>
+        <v>1083.349541243459</v>
       </c>
       <c r="P32" t="n">
         <v>1242.411117718199</v>
@@ -6742,10 +6742,10 @@
         <v>1330.547452081003</v>
       </c>
       <c r="X32" t="n">
-        <v>1330.547452081003</v>
+        <v>994.5506207474166</v>
       </c>
       <c r="Y32" t="n">
-        <v>1034.60144304238</v>
+        <v>994.5506207474166</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>266.5198827550408</v>
+        <v>59.37372277249449</v>
       </c>
       <c r="C33" t="n">
-        <v>266.5198827550408</v>
+        <v>59.37372277249449</v>
       </c>
       <c r="D33" t="n">
-        <v>266.5198827550408</v>
+        <v>59.37372277249449</v>
       </c>
       <c r="E33" t="n">
-        <v>266.5198827550408</v>
+        <v>59.37372277249449</v>
       </c>
       <c r="F33" t="n">
-        <v>266.5198827550408</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="G33" t="n">
-        <v>266.5198827550408</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H33" t="n">
-        <v>266.5198827550408</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I33" t="n">
-        <v>266.5198827550408</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J33" t="n">
-        <v>293.1214080228028</v>
+        <v>53.21247430938207</v>
       </c>
       <c r="K33" t="n">
-        <v>389.3882878052147</v>
+        <v>149.4793540917939</v>
       </c>
       <c r="L33" t="n">
-        <v>548.9406394943625</v>
+        <v>309.0317057809417</v>
       </c>
       <c r="M33" t="n">
-        <v>747.7126726293249</v>
+        <v>507.8037389159041</v>
       </c>
       <c r="N33" t="n">
-        <v>961.1112292119612</v>
+        <v>721.2022954985405</v>
       </c>
       <c r="O33" t="n">
-        <v>1141.88635081387</v>
+        <v>901.9774171004487</v>
       </c>
       <c r="P33" t="n">
-        <v>1274.407830257515</v>
+        <v>1034.498896544095</v>
       </c>
       <c r="Q33" t="n">
-        <v>1330.547452081003</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="R33" t="n">
-        <v>1330.547452081003</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="S33" t="n">
-        <v>1330.547452081003</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T33" t="n">
-        <v>1330.547452081003</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="U33" t="n">
-        <v>1120.561198556042</v>
+        <v>880.6522648426217</v>
       </c>
       <c r="V33" t="n">
-        <v>898.0211969271095</v>
+        <v>658.1122632136887</v>
       </c>
       <c r="W33" t="n">
-        <v>667.9039510603964</v>
+        <v>427.9950173469756</v>
       </c>
       <c r="X33" t="n">
-        <v>478.596873410408</v>
+        <v>238.6879396969873</v>
       </c>
       <c r="Y33" t="n">
-        <v>299.2826564859153</v>
+        <v>59.37372277249449</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="C34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="D34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="E34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="F34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="G34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I34" t="n">
-        <v>40.71852847193905</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J34" t="n">
         <v>26.61094904162007</v>
@@ -6885,25 +6885,25 @@
         <v>311.2225622109073</v>
       </c>
       <c r="S34" t="n">
-        <v>125.4820635382461</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="T34" t="n">
-        <v>125.4820635382461</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="U34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="V34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="W34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.4820635382461</v>
+        <v>26.61094904162007</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>322.5569580802432</v>
+        <v>990.2166046080877</v>
       </c>
       <c r="C35" t="n">
-        <v>322.5569580802432</v>
+        <v>698.6046117087933</v>
       </c>
       <c r="D35" t="n">
-        <v>322.5569580802432</v>
+        <v>698.6046117087933</v>
       </c>
       <c r="E35" t="n">
-        <v>322.5569580802432</v>
+        <v>698.6046117087933</v>
       </c>
       <c r="F35" t="n">
-        <v>322.5569580802432</v>
+        <v>362.6077803752067</v>
       </c>
       <c r="G35" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H35" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I35" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J35" t="n">
-        <v>91.81170871208292</v>
+        <v>91.81170871208255</v>
       </c>
       <c r="K35" t="n">
-        <v>222.5107827646402</v>
+        <v>222.51078276464</v>
       </c>
       <c r="L35" t="n">
-        <v>408.6406865371936</v>
+        <v>408.6406865371935</v>
       </c>
       <c r="M35" t="n">
-        <v>636.3312022157979</v>
+        <v>636.3312022157977</v>
       </c>
       <c r="N35" t="n">
-        <v>870.7049639274289</v>
+        <v>870.7049639274287</v>
       </c>
       <c r="O35" t="n">
         <v>1083.349541243458</v>
       </c>
       <c r="P35" t="n">
-        <v>1242.411117718199</v>
+        <v>1242.411117718198</v>
       </c>
       <c r="Q35" t="n">
         <v>1330.547452081003</v>
       </c>
       <c r="R35" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="S35" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="T35" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="U35" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="V35" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="W35" t="n">
-        <v>994.5506207474166</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="X35" t="n">
-        <v>658.5537894138299</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="Y35" t="n">
-        <v>322.5569580802432</v>
+        <v>1326.213435941674</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>759.5279670021287</v>
+        <v>568.232443866028</v>
       </c>
       <c r="C36" t="n">
-        <v>608.8737365622209</v>
+        <v>417.5782134261202</v>
       </c>
       <c r="D36" t="n">
-        <v>478.7847691837012</v>
+        <v>287.4892460476005</v>
       </c>
       <c r="E36" t="n">
-        <v>342.3382782945889</v>
+        <v>151.0427551584883</v>
       </c>
       <c r="F36" t="n">
-        <v>217.9064721777207</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="G36" t="n">
-        <v>99.01537915482101</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H36" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I36" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J36" t="n">
-        <v>53.21247430938207</v>
+        <v>53.21247430938206</v>
       </c>
       <c r="K36" t="n">
         <v>149.4793540917939</v>
@@ -7046,22 +7046,22 @@
         <v>1090.638518367583</v>
       </c>
       <c r="T36" t="n">
-        <v>1090.638518367583</v>
+        <v>918.3654880924198</v>
       </c>
       <c r="U36" t="n">
-        <v>1090.638518367583</v>
+        <v>918.3654880924198</v>
       </c>
       <c r="V36" t="n">
-        <v>1090.638518367583</v>
+        <v>918.3654880924198</v>
       </c>
       <c r="W36" t="n">
-        <v>1090.638518367583</v>
+        <v>918.3654880924198</v>
       </c>
       <c r="X36" t="n">
-        <v>1090.638518367583</v>
+        <v>899.3429952314821</v>
       </c>
       <c r="Y36" t="n">
-        <v>911.32430144309</v>
+        <v>720.0287783069894</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="C37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="D37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="E37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="F37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="G37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="K37" t="n">
-        <v>1074.487680615031</v>
+        <v>55.16279074493477</v>
       </c>
       <c r="L37" t="n">
-        <v>1130.462976446664</v>
+        <v>111.1380865765676</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.598961544735</v>
+        <v>172.2740716746392</v>
       </c>
       <c r="N37" t="n">
-        <v>1256.388661401686</v>
+        <v>237.0637715315905</v>
       </c>
       <c r="O37" t="n">
-        <v>1303.028927939927</v>
+        <v>283.7040380698306</v>
       </c>
       <c r="P37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="Q37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="R37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="S37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="T37" t="n">
-        <v>1330.547452081003</v>
+        <v>79.69001273597544</v>
       </c>
       <c r="U37" t="n">
-        <v>1330.547452081003</v>
+        <v>79.69001273597544</v>
       </c>
       <c r="V37" t="n">
-        <v>1064.568106901827</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="X37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="Y37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1330.547452081003</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="C38" t="n">
-        <v>1000.317290685208</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="D38" t="n">
-        <v>1000.317290685208</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="E38" t="n">
-        <v>1000.317290685208</v>
+        <v>698.6046117087935</v>
       </c>
       <c r="F38" t="n">
-        <v>664.3204593516214</v>
+        <v>362.6077803752068</v>
       </c>
       <c r="G38" t="n">
-        <v>328.3236280180348</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H38" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I38" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J38" t="n">
-        <v>91.81170871208258</v>
+        <v>91.81170871208292</v>
       </c>
       <c r="K38" t="n">
-        <v>222.5107827646401</v>
+        <v>222.5107827646405</v>
       </c>
       <c r="L38" t="n">
-        <v>408.6406865371933</v>
+        <v>408.640686537194</v>
       </c>
       <c r="M38" t="n">
-        <v>636.3312022157976</v>
+        <v>636.3312022157984</v>
       </c>
       <c r="N38" t="n">
-        <v>870.7049639274285</v>
+        <v>870.7049639274294</v>
       </c>
       <c r="O38" t="n">
-        <v>1083.349541243458</v>
+        <v>1083.349541243459</v>
       </c>
       <c r="P38" t="n">
-        <v>1242.411117718198</v>
+        <v>1242.411117718199</v>
       </c>
       <c r="Q38" t="n">
         <v>1330.547452081003</v>
       </c>
       <c r="R38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="S38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="T38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="U38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="V38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="W38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="X38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="Y38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941675</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>529.4107211354155</v>
+        <v>347.6808877232074</v>
       </c>
       <c r="C39" t="n">
-        <v>378.7564906955078</v>
+        <v>275.5910094430395</v>
       </c>
       <c r="D39" t="n">
-        <v>378.7564906955078</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="E39" t="n">
-        <v>242.3099998063955</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="F39" t="n">
-        <v>117.8781936895273</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="G39" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H39" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I39" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J39" t="n">
-        <v>53.21247430938206</v>
+        <v>53.21247430938207</v>
       </c>
       <c r="K39" t="n">
         <v>149.4793540917939</v>
@@ -7289,16 +7289,16 @@
         <v>1090.638518367583</v>
       </c>
       <c r="V39" t="n">
-        <v>1090.638518367583</v>
+        <v>868.0985167386498</v>
       </c>
       <c r="W39" t="n">
-        <v>860.5212725008696</v>
+        <v>868.0985167386498</v>
       </c>
       <c r="X39" t="n">
-        <v>860.5212725008696</v>
+        <v>678.7914390886615</v>
       </c>
       <c r="Y39" t="n">
-        <v>681.2070555763769</v>
+        <v>499.4772221641687</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1330.547452081003</v>
+        <v>27.89216014208489</v>
       </c>
       <c r="C40" t="n">
-        <v>1330.547452081003</v>
+        <v>27.89216014208489</v>
       </c>
       <c r="D40" t="n">
-        <v>1330.547452081003</v>
+        <v>27.89216014208489</v>
       </c>
       <c r="E40" t="n">
-        <v>1330.547452081003</v>
+        <v>27.89216014208489</v>
       </c>
       <c r="F40" t="n">
-        <v>1173.221517293976</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="G40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="H40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="I40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="J40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162007</v>
       </c>
       <c r="K40" t="n">
-        <v>1074.48768061503</v>
+        <v>55.16279074493478</v>
       </c>
       <c r="L40" t="n">
-        <v>1130.462976446663</v>
+        <v>111.1380865765676</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.598961544735</v>
+        <v>172.2740716746393</v>
       </c>
       <c r="N40" t="n">
-        <v>1256.388661401686</v>
+        <v>237.0637715315905</v>
       </c>
       <c r="O40" t="n">
-        <v>1303.028927939926</v>
+        <v>283.7040380698307</v>
       </c>
       <c r="P40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="Q40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="R40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="S40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="T40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="U40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="V40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109073</v>
       </c>
       <c r="W40" t="n">
-        <v>1330.547452081003</v>
+        <v>27.89216014208489</v>
       </c>
       <c r="X40" t="n">
-        <v>1330.547452081003</v>
+        <v>27.89216014208489</v>
       </c>
       <c r="Y40" t="n">
-        <v>1330.547452081003</v>
+        <v>27.89216014208489</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26.61094904162007</v>
+        <v>698.6046117087932</v>
       </c>
       <c r="C41" t="n">
-        <v>26.61094904162007</v>
+        <v>698.6046117087932</v>
       </c>
       <c r="D41" t="n">
-        <v>26.61094904162007</v>
+        <v>698.6046117087932</v>
       </c>
       <c r="E41" t="n">
-        <v>26.61094904162007</v>
+        <v>362.6077803752066</v>
       </c>
       <c r="F41" t="n">
-        <v>26.61094904162007</v>
+        <v>362.6077803752066</v>
       </c>
       <c r="G41" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="H41" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I41" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J41" t="n">
-        <v>91.81170871208315</v>
+        <v>91.81170871208246</v>
       </c>
       <c r="K41" t="n">
-        <v>222.5107827646405</v>
+        <v>222.5107827646399</v>
       </c>
       <c r="L41" t="n">
-        <v>408.6406865371939</v>
+        <v>408.6406865371931</v>
       </c>
       <c r="M41" t="n">
-        <v>636.3312022157982</v>
+        <v>636.3312022157974</v>
       </c>
       <c r="N41" t="n">
-        <v>870.7049639274292</v>
+        <v>870.7049639274286</v>
       </c>
       <c r="O41" t="n">
-        <v>1083.349541243459</v>
+        <v>1083.349541243458</v>
       </c>
       <c r="P41" t="n">
-        <v>1242.411117718199</v>
+        <v>1242.411117718198</v>
       </c>
       <c r="Q41" t="n">
         <v>1330.547452081003</v>
       </c>
       <c r="R41" t="n">
-        <v>1326.213435941675</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="S41" t="n">
-        <v>1326.213435941675</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="T41" t="n">
-        <v>1326.213435941675</v>
+        <v>1112.274781608346</v>
       </c>
       <c r="U41" t="n">
-        <v>1326.213435941675</v>
+        <v>1112.274781608346</v>
       </c>
       <c r="V41" t="n">
-        <v>1034.60144304238</v>
+        <v>1112.274781608346</v>
       </c>
       <c r="W41" t="n">
-        <v>698.6046117087936</v>
+        <v>776.2779502747595</v>
       </c>
       <c r="X41" t="n">
-        <v>362.6077803752069</v>
+        <v>776.2779502747595</v>
       </c>
       <c r="Y41" t="n">
-        <v>26.61094904162007</v>
+        <v>698.6046117087932</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.6999164201397</v>
+        <v>248.6808004224826</v>
       </c>
       <c r="C42" t="n">
-        <v>156.6999164201397</v>
+        <v>248.6808004224826</v>
       </c>
       <c r="D42" t="n">
-        <v>26.61094904162007</v>
+        <v>248.6808004224826</v>
       </c>
       <c r="E42" t="n">
-        <v>26.61094904162007</v>
+        <v>151.0427551584883</v>
       </c>
       <c r="F42" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="G42" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="H42" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I42" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J42" t="n">
-        <v>53.21247430938207</v>
+        <v>53.21247430938205</v>
       </c>
       <c r="K42" t="n">
         <v>149.4793540917939</v>
       </c>
       <c r="L42" t="n">
-        <v>309.0317057809417</v>
+        <v>309.0317057809416</v>
       </c>
       <c r="M42" t="n">
-        <v>507.8037389159041</v>
+        <v>507.8037389159039</v>
       </c>
       <c r="N42" t="n">
-        <v>721.2022954985405</v>
+        <v>721.2022954985403</v>
       </c>
       <c r="O42" t="n">
-        <v>901.9774171004487</v>
+        <v>901.9774171004485</v>
       </c>
       <c r="P42" t="n">
-        <v>1034.498896544095</v>
+        <v>1034.498896544094</v>
       </c>
       <c r="Q42" t="n">
-        <v>1090.638518367583</v>
+        <v>1090.638518367582</v>
       </c>
       <c r="R42" t="n">
-        <v>1090.638518367583</v>
+        <v>1090.638518367582</v>
       </c>
       <c r="S42" t="n">
-        <v>1090.638518367583</v>
+        <v>1090.638518367582</v>
       </c>
       <c r="T42" t="n">
-        <v>1090.638518367583</v>
+        <v>1090.638518367582</v>
       </c>
       <c r="U42" t="n">
-        <v>1090.638518367583</v>
+        <v>880.6522648426214</v>
       </c>
       <c r="V42" t="n">
-        <v>868.0985167386498</v>
+        <v>658.1122632136885</v>
       </c>
       <c r="W42" t="n">
-        <v>637.9812708719367</v>
+        <v>427.9950173469754</v>
       </c>
       <c r="X42" t="n">
-        <v>448.6741932219483</v>
+        <v>427.9950173469754</v>
       </c>
       <c r="Y42" t="n">
-        <v>269.3599762974555</v>
+        <v>248.6808004224826</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="C43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="D43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="E43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="F43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="G43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="H43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="K43" t="n">
-        <v>55.16279074493478</v>
+        <v>55.16279074493474</v>
       </c>
       <c r="L43" t="n">
-        <v>111.1380865765676</v>
+        <v>111.1380865765675</v>
       </c>
       <c r="M43" t="n">
-        <v>172.2740716746393</v>
+        <v>172.2740716746391</v>
       </c>
       <c r="N43" t="n">
-        <v>237.0637715315905</v>
+        <v>237.0637715315904</v>
       </c>
       <c r="O43" t="n">
-        <v>283.7040380698307</v>
+        <v>283.7040380698305</v>
       </c>
       <c r="P43" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="Q43" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="R43" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="S43" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="T43" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="U43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="V43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="W43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="X43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>780.6119664140891</v>
+        <v>739.95889066593</v>
       </c>
       <c r="C44" t="n">
-        <v>444.6151350805023</v>
+        <v>739.95889066593</v>
       </c>
       <c r="D44" t="n">
-        <v>108.6183037469156</v>
+        <v>739.95889066593</v>
       </c>
       <c r="E44" t="n">
-        <v>108.6183037469156</v>
+        <v>664.3204593516214</v>
       </c>
       <c r="F44" t="n">
-        <v>108.6183037469156</v>
+        <v>328.3236280180348</v>
       </c>
       <c r="G44" t="n">
-        <v>26.61094904162007</v>
+        <v>328.3236280180348</v>
       </c>
       <c r="H44" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I44" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J44" t="n">
-        <v>91.81170871208256</v>
+        <v>91.81170871208249</v>
       </c>
       <c r="K44" t="n">
-        <v>222.5107827646401</v>
+        <v>222.5107827646399</v>
       </c>
       <c r="L44" t="n">
-        <v>408.6406865371932</v>
+        <v>408.6406865371935</v>
       </c>
       <c r="M44" t="n">
-        <v>636.3312022157977</v>
+        <v>636.3312022157978</v>
       </c>
       <c r="N44" t="n">
         <v>870.7049639274287</v>
@@ -7666,34 +7666,34 @@
         <v>1083.349541243458</v>
       </c>
       <c r="P44" t="n">
-        <v>1242.411117718199</v>
+        <v>1242.411117718198</v>
       </c>
       <c r="Q44" t="n">
         <v>1330.547452081003</v>
       </c>
       <c r="R44" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="S44" t="n">
-        <v>1330.547452081003</v>
+        <v>1209.475527369095</v>
       </c>
       <c r="T44" t="n">
-        <v>1116.608797747676</v>
+        <v>995.5368730357676</v>
       </c>
       <c r="U44" t="n">
-        <v>1116.608797747676</v>
+        <v>739.95889066593</v>
       </c>
       <c r="V44" t="n">
-        <v>1116.608797747676</v>
+        <v>739.95889066593</v>
       </c>
       <c r="W44" t="n">
-        <v>1116.608797747676</v>
+        <v>739.95889066593</v>
       </c>
       <c r="X44" t="n">
-        <v>780.6119664140891</v>
+        <v>739.95889066593</v>
       </c>
       <c r="Y44" t="n">
-        <v>780.6119664140891</v>
+        <v>739.95889066593</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="C45" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="D45" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="E45" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="F45" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="G45" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="H45" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I45" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J45" t="n">
-        <v>53.21247430938207</v>
+        <v>53.21247430938205</v>
       </c>
       <c r="K45" t="n">
         <v>149.4793540917939</v>
       </c>
       <c r="L45" t="n">
-        <v>309.0317057809417</v>
+        <v>309.0317057809416</v>
       </c>
       <c r="M45" t="n">
-        <v>507.8037389159041</v>
+        <v>507.8037389159039</v>
       </c>
       <c r="N45" t="n">
-        <v>721.2022954985405</v>
+        <v>721.2022954985403</v>
       </c>
       <c r="O45" t="n">
-        <v>901.9774171004487</v>
+        <v>901.9774171004485</v>
       </c>
       <c r="P45" t="n">
-        <v>1034.498896544095</v>
+        <v>1034.498896544094</v>
       </c>
       <c r="Q45" t="n">
-        <v>1090.638518367583</v>
+        <v>1090.638518367582</v>
       </c>
       <c r="R45" t="n">
-        <v>1090.638518367583</v>
+        <v>1067.553823052474</v>
       </c>
       <c r="S45" t="n">
-        <v>1090.638518367583</v>
+        <v>1067.553823052474</v>
       </c>
       <c r="T45" t="n">
-        <v>1090.638518367583</v>
+        <v>1067.553823052474</v>
       </c>
       <c r="U45" t="n">
-        <v>999.6858255527086</v>
+        <v>857.5675695275133</v>
       </c>
       <c r="V45" t="n">
-        <v>777.1458239237757</v>
+        <v>635.0275678985804</v>
       </c>
       <c r="W45" t="n">
-        <v>547.0285780570625</v>
+        <v>404.9103220318673</v>
       </c>
       <c r="X45" t="n">
-        <v>357.7215004070742</v>
+        <v>215.6032443818789</v>
       </c>
       <c r="Y45" t="n">
-        <v>178.4072834825814</v>
+        <v>36.28902745738617</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.89216014208489</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="C46" t="n">
-        <v>27.89216014208489</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="D46" t="n">
-        <v>27.89216014208489</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="E46" t="n">
-        <v>27.89216014208489</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="F46" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="G46" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="H46" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I46" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J46" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="K46" t="n">
-        <v>55.16279074493478</v>
+        <v>55.16279074493474</v>
       </c>
       <c r="L46" t="n">
-        <v>111.1380865765676</v>
+        <v>111.1380865765675</v>
       </c>
       <c r="M46" t="n">
-        <v>172.2740716746393</v>
+        <v>172.2740716746391</v>
       </c>
       <c r="N46" t="n">
-        <v>237.0637715315905</v>
+        <v>237.0637715315904</v>
       </c>
       <c r="O46" t="n">
-        <v>283.7040380698307</v>
+        <v>283.7040380698305</v>
       </c>
       <c r="P46" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="Q46" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="R46" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="S46" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="T46" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="U46" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="V46" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="W46" t="n">
-        <v>27.89216014208489</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="X46" t="n">
-        <v>27.89216014208489</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.89216014208489</v>
+        <v>26.61094904162005</v>
       </c>
     </row>
   </sheetData>
@@ -22564,19 +22564,19 @@
         <v>408.1784371103926</v>
       </c>
       <c r="H2" t="n">
-        <v>312.1095997976176</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I2" t="n">
-        <v>104.0803818793759</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J2" t="n">
-        <v>45.30876821055374</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K2" t="n">
-        <v>34.59292991576683</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L2" t="n">
-        <v>18.68715897392912</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,16 +22585,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.895022563523725</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P2" t="n">
-        <v>27.68343765293238</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.41767977011645</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R2" t="n">
-        <v>86.5677581937198</v>
+        <v>86.56775819371971</v>
       </c>
       <c r="S2" t="n">
         <v>145.4177268441001</v>
@@ -22631,7 +22631,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047347</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -22643,16 +22643,16 @@
         <v>118.4029899247188</v>
       </c>
       <c r="H3" t="n">
-        <v>83.00822261809725</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I3" t="n">
-        <v>48.98163419533766</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J3" t="n">
-        <v>39.34074399253976</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K3" t="n">
-        <v>15.92582377546667</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,13 +22670,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>32.75081630662829</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R3" t="n">
-        <v>66.36540832016914</v>
+        <v>66.36540832016887</v>
       </c>
       <c r="S3" t="n">
-        <v>125.1071014466146</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T3" t="n">
         <v>173.3750473305348</v>
@@ -22685,13 +22685,13 @@
         <v>207.9324967681357</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126439</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8160734080462</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734887</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -22725,34 +22725,34 @@
         <v>150.5231016362263</v>
       </c>
       <c r="I4" t="n">
-        <v>120.2610310536821</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J4" t="n">
-        <v>55.50513938830235</v>
+        <v>55.50513938830231</v>
       </c>
       <c r="K4" t="n">
-        <v>39.4204945609368</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L4" t="n">
-        <v>30.80954133327063</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M4" t="n">
-        <v>30.34506479299971</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N4" t="n">
-        <v>24.46454532135652</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O4" t="n">
-        <v>35.93384386774949</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P4" t="n">
-        <v>43.26304678555952</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.45011700163337</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R4" t="n">
-        <v>105.4639389734311</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S4" t="n">
         <v>194.1222044917894</v>
@@ -22789,25 +22789,25 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>349.2199629278679</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>380.358739517691</v>
       </c>
       <c r="G5" t="n">
-        <v>407.9941069995947</v>
+        <v>375.6273524319637</v>
       </c>
       <c r="H5" t="n">
         <v>310.221829050409</v>
       </c>
       <c r="I5" t="n">
-        <v>64.60724071521108</v>
+        <v>95.77262874761927</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K5" t="n">
         <v>11.14544858436605</v>
@@ -22828,10 +22828,10 @@
         <v>1.176537307564445</v>
       </c>
       <c r="Q5" t="n">
-        <v>28.60796088406781</v>
+        <v>32.51210151769618</v>
       </c>
       <c r="R5" t="n">
-        <v>42.62207730368389</v>
+        <v>74.98883187131496</v>
       </c>
       <c r="S5" t="n">
         <v>141.2173044442944</v>
@@ -22877,16 +22877,16 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>85.93761005299433</v>
+        <v>118.3043646206254</v>
       </c>
       <c r="H6" t="n">
-        <v>49.68895524514316</v>
+        <v>82.05570981277423</v>
       </c>
       <c r="I6" t="n">
-        <v>34.89478863114821</v>
+        <v>45.58598227808712</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.514178168160687</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,10 +22907,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>20.16138275253149</v>
       </c>
       <c r="R6" t="n">
-        <v>60.2419881239143</v>
+        <v>27.87523355628326</v>
       </c>
       <c r="S6" t="n">
         <v>123.2751796797921</v>
@@ -22919,10 +22919,10 @@
         <v>172.9775181442987</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9260082612874</v>
+        <v>175.5592536936564</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>187.9478470450126</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -23044,7 +23044,7 @@
         <v>90.85590430800323</v>
       </c>
       <c r="J8" t="n">
-        <v>16.1949363378272</v>
+        <v>16.19493633782723</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.37482126974507</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.02020383945647</v>
+        <v>4.787986801539986</v>
       </c>
       <c r="S8" t="n">
-        <v>137.6010409571238</v>
+        <v>77.36882391920734</v>
       </c>
       <c r="T8" t="n">
-        <v>162.978812820523</v>
+        <v>155.7991325496034</v>
       </c>
       <c r="U8" t="n">
-        <v>253.0995449890409</v>
+        <v>215.4218294917891</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>307.0568276434789</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>325.3258619783571</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>332.2935849506883</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23117,13 +23117,13 @@
         <v>118.2194552824311</v>
       </c>
       <c r="H9" t="n">
-        <v>81.23566436231874</v>
+        <v>81.23566436231876</v>
       </c>
       <c r="I9" t="n">
         <v>42.6625686604325</v>
       </c>
       <c r="J9" t="n">
-        <v>22.00074517885899</v>
+        <v>22.000745178859</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.322780213904721</v>
+        <v>9.322780213904736</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>63.38343312716414</v>
+        <v>61.46580892585432</v>
       </c>
       <c r="T9" t="n">
-        <v>112.4030568879586</v>
+        <v>172.6352739258752</v>
       </c>
       <c r="U9" t="n">
-        <v>147.6882050827002</v>
+        <v>207.9204221206168</v>
       </c>
       <c r="V9" t="n">
         <v>220.3146016126436</v>
@@ -23165,10 +23165,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>127.181789835572</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>119.2064819186413</v>
       </c>
     </row>
     <row r="10">
@@ -23202,28 +23202,28 @@
         <v>115.6337621977075</v>
       </c>
       <c r="J10" t="n">
-        <v>44.62658137956164</v>
+        <v>44.62658137956165</v>
       </c>
       <c r="K10" t="n">
-        <v>21.54368199160334</v>
+        <v>21.54368199160336</v>
       </c>
       <c r="L10" t="n">
-        <v>7.933376015674426</v>
+        <v>7.93337601567444</v>
       </c>
       <c r="M10" t="n">
-        <v>6.225355940650985</v>
+        <v>6.225355940650999</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9183492353165832</v>
+        <v>0.9183492353166116</v>
       </c>
       <c r="O10" t="n">
-        <v>14.1851207200189</v>
+        <v>14.18512072001893</v>
       </c>
       <c r="P10" t="n">
-        <v>24.65325692465089</v>
+        <v>24.6532569246509</v>
       </c>
       <c r="Q10" t="n">
-        <v>53.56566312243693</v>
+        <v>53.56566312243694</v>
       </c>
       <c r="R10" t="n">
         <v>98.5454166754715</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>274.598166596175</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>267.3521148239908</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23272,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.5979401715768</v>
+        <v>300.2357910071154</v>
       </c>
       <c r="H11" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I11" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S11" t="n">
-        <v>10.2980211927273</v>
+        <v>132.189652850835</v>
       </c>
       <c r="T11" t="n">
-        <v>93.10018522791881</v>
+        <v>93.1001852279186</v>
       </c>
       <c r="U11" t="n">
-        <v>131.1889155888157</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V11" t="n">
-        <v>281.426709399887</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23345,7 +23345,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>13.19039432211325</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -23354,13 +23354,13 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H12" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.28796328765948</v>
       </c>
       <c r="J12" t="n">
-        <v>9.996493671228009</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.08138215850113</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>50.2637822839508</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>50.23150693813966</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U12" t="n">
-        <v>86.02043134396234</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V12" t="n">
-        <v>98.42296995453592</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>133.0950506775135</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
@@ -23430,7 +23430,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9286346603149</v>
+        <v>131.9882695949325</v>
       </c>
       <c r="H13" t="n">
         <v>148.207989438968</v>
@@ -23439,10 +23439,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J13" t="n">
-        <v>37.09549975836525</v>
+        <v>37.09549975836521</v>
       </c>
       <c r="K13" t="n">
-        <v>9.16780143111859</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.47550718676725</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R13" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S13" t="n">
         <v>189.5843005223167</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>372.8963141158394</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>290.8338624272144</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>285.7063085134692</v>
+        <v>407.5979401715768</v>
       </c>
       <c r="H14" t="n">
-        <v>184.2729538648625</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083152</v>
       </c>
       <c r="S14" t="n">
         <v>132.189652850835</v>
@@ -23554,16 +23554,16 @@
         <v>253.0805472469234</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>216.794109545409</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>245.3974130232876</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>263.666447358166</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>285.1636528241436</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>27.25605647740095</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>13.19039432211353</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>18.42747497409476</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S15" t="n">
         <v>119.3379681607525</v>
@@ -23630,7 +23630,7 @@
         <v>172.1231385962474</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9120630020701</v>
+        <v>96.75067886002216</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -23639,7 +23639,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538071</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -23667,7 +23667,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.9286346603149</v>
+        <v>131.9882695949328</v>
       </c>
       <c r="H16" t="n">
         <v>148.207989438968</v>
@@ -23676,10 +23676,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J16" t="n">
-        <v>37.09549975836525</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K16" t="n">
-        <v>9.16780143111859</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>11.76994589361104</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.47550718676725</v>
+        <v>44.64592635853824</v>
       </c>
       <c r="R16" t="n">
-        <v>93.75581532553741</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S16" t="n">
         <v>189.5843005223167</v>
@@ -23737,22 +23737,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>274.2245683310376</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>276.6660579765131</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272142</v>
       </c>
       <c r="G17" t="n">
-        <v>407.5979401715768</v>
+        <v>285.706308513469</v>
       </c>
       <c r="H17" t="n">
-        <v>184.2729538648625</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.70077364567959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>50.10311736083153</v>
       </c>
       <c r="S17" t="n">
         <v>132.189652850835</v>
@@ -23788,10 +23788,10 @@
         <v>214.9918168860265</v>
       </c>
       <c r="U17" t="n">
-        <v>155.6306574308658</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V17" t="n">
-        <v>216.7941095454092</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23816,10 +23816,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>6.896446046626707</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>13.19039432211339</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
@@ -23828,13 +23828,13 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I18" t="n">
         <v>38.28796328765949</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>47.08138215850112</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
-        <v>50.23150693813976</v>
+        <v>50.23150693813962</v>
       </c>
       <c r="U18" t="n">
-        <v>113.1910402715382</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>120.4539242435847</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
@@ -23913,10 +23913,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J19" t="n">
-        <v>37.09549975836525</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K19" t="n">
-        <v>9.16780143111859</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361107</v>
+        <v>11.76994589361105</v>
       </c>
       <c r="Q19" t="n">
         <v>44.64592635853825</v>
@@ -23952,10 +23952,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>246.556732982752</v>
       </c>
       <c r="X19" t="n">
-        <v>197.7991539294646</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23971,7 +23971,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>281.8815973176375</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>50.10311736083153</v>
       </c>
       <c r="S20" t="n">
-        <v>10.29802119272735</v>
+        <v>132.189652850835</v>
       </c>
       <c r="T20" t="n">
-        <v>93.10018522791884</v>
+        <v>93.10018522791886</v>
       </c>
       <c r="U20" t="n">
-        <v>195.8215154432937</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V20" t="n">
-        <v>216.7941095454091</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>263.6664473581661</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>270.6341703304972</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.38673943844405</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
@@ -24071,7 +24071,7 @@
         <v>38.28796328765949</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850112</v>
       </c>
       <c r="S21" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>172.1231385962474</v>
       </c>
       <c r="U21" t="n">
-        <v>100.5499138376088</v>
+        <v>86.02043134396239</v>
       </c>
       <c r="V21" t="n">
         <v>98.42296995453596</v>
       </c>
       <c r="W21" t="n">
-        <v>105.9244417499383</v>
+        <v>117.9002607462294</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
@@ -24150,10 +24150,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J22" t="n">
-        <v>37.09549975836525</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K22" t="n">
-        <v>9.16780143111859</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,10 +24168,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361107</v>
+        <v>11.76994589361105</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.70556129315619</v>
+        <v>44.64592635853825</v>
       </c>
       <c r="R22" t="n">
         <v>93.75581532553741</v>
@@ -24189,7 +24189,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>246.556732982752</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63.85293523403209</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24220,13 +24220,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>406.868631411775</v>
+        <v>74.23176839152433</v>
       </c>
       <c r="H23" t="n">
         <v>298.6955521866505</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>17.91042725926069</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.29067597793528</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>115.5705294868528</v>
@@ -24262,19 +24262,19 @@
         <v>211.7992677899944</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>6.048878183266083</v>
       </c>
       <c r="W23" t="n">
-        <v>34.6521816611446</v>
+        <v>34.65218166114471</v>
       </c>
       <c r="X23" t="n">
-        <v>52.92121599602291</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>153.1233507237908</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.7021820926707</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>76.23989434542257</v>
@@ -24335,25 +24335,25 @@
         <v>22.85384836195698</v>
       </c>
       <c r="S24" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.5502999724113</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>117.8432251029861</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>176.2793382688548</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24372,10 +24372,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>27.99040242095194</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>165.6014918580186</v>
@@ -24420,7 +24420,7 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5314935766891</v>
+        <v>0.7659965390948855</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24448,7 +24448,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>92.89084452519722</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.29067597793528</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>115.5705294868528</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.7992677899944</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V26" t="n">
         <v>6.04887818326597</v>
@@ -24508,7 +24508,7 @@
         <v>34.6521816611446</v>
       </c>
       <c r="X26" t="n">
-        <v>224.7561373839198</v>
+        <v>52.92121599602291</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24524,13 +24524,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>23.97849471411821</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
@@ -24575,7 +24575,7 @@
         <v>112.089903338178</v>
       </c>
       <c r="T27" t="n">
-        <v>138.1151539788456</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>52.33906157509499</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6014918580186</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>145.2993925240062</v>
@@ -24657,7 +24657,7 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U28" t="n">
-        <v>0.7659965390948522</v>
+        <v>282.5314935766891</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24688,19 +24688,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>65.92082661437018</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>74.23176839152427</v>
+        <v>74.23176839152433</v>
       </c>
       <c r="H29" t="n">
         <v>298.6955521866505</v>
       </c>
       <c r="I29" t="n">
-        <v>17.91042725926057</v>
+        <v>17.91042725926069</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.048878183266027</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>34.65218166114465</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>59.88893896835418</v>
       </c>
     </row>
     <row r="30">
@@ -24761,19 +24761,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>100.9828242500884</v>
       </c>
       <c r="G30" t="n">
-        <v>117.7021820926707</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>76.23989434542257</v>
@@ -24809,16 +24809,16 @@
         <v>22.85384836195698</v>
       </c>
       <c r="S30" t="n">
-        <v>29.89045570438003</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.8863909897115</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.8076654469764</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24891,10 +24891,10 @@
         <v>183.8830936859346</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.2172239801824</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5314935766891</v>
+        <v>0.7659965390948855</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.85293523403203</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>56.60688346184781</v>
+        <v>96.25719753386187</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>48.94985447524812</v>
       </c>
       <c r="E32" t="n">
-        <v>65.92082661437001</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>80.08863106507118</v>
       </c>
       <c r="G32" t="n">
         <v>406.868631411775</v>
@@ -24982,10 +24982,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>52.92121599602291</v>
       </c>
       <c r="Y32" t="n">
-        <v>99.53925304036807</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.8432251029861</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
@@ -25007,7 +25007,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>90.75234206213383</v>
       </c>
       <c r="G33" t="n">
         <v>117.7021820926707</v>
@@ -25095,10 +25095,10 @@
         <v>145.2993925240062</v>
       </c>
       <c r="I34" t="n">
-        <v>18.67638926930159</v>
+        <v>102.5922889849455</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>13.96650363601579</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>79.04628532410493</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.8830936859346</v>
       </c>
       <c r="T34" t="n">
         <v>229.2172239801824</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5314935766891</v>
+        <v>0.7659965390948287</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>63.8529352340322</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>100.5478735117973</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25165,10 +25165,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>80.0886310650713</v>
       </c>
       <c r="G35" t="n">
-        <v>113.8820824635382</v>
+        <v>74.23176839152433</v>
       </c>
       <c r="H35" t="n">
         <v>298.6955521866505</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.29067597793528</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>115.5705294868528</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>34.6521816611446</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>52.92121599602291</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>59.88893896835407</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H36" t="n">
-        <v>4.55950853335365</v>
+        <v>76.23989434542257</v>
       </c>
       <c r="I36" t="n">
         <v>24.85294348666547</v>
@@ -25286,7 +25286,7 @@
         <v>112.089903338178</v>
       </c>
       <c r="T36" t="n">
-        <v>170.5502999724113</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>207.8863909897115</v>
@@ -25298,7 +25298,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>168.5817389411601</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>183.8830936859346</v>
       </c>
       <c r="T37" t="n">
-        <v>229.2172239801824</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5314935766891</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>210.7712786699722</v>
       </c>
       <c r="W37" t="n">
-        <v>262.0511527379239</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>107.7939252839813</v>
       </c>
       <c r="C38" t="n">
-        <v>62.3158867002619</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>65.92082661437007</v>
       </c>
       <c r="F38" t="n">
-        <v>80.0886310650713</v>
+        <v>80.08863106507118</v>
       </c>
       <c r="G38" t="n">
-        <v>74.23176839152433</v>
+        <v>74.23176839152421</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>298.6955521866505</v>
       </c>
       <c r="I38" t="n">
         <v>53.58409768342287</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.29067597793528</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>115.5705294868528</v>
@@ -25472,19 +25472,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>77.77870863814248</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>27.3476098912426</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>76.23989434542257</v>
@@ -25529,13 +25529,13 @@
         <v>207.8863909897115</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>154.4842764496966</v>
       </c>
       <c r="G40" t="n">
-        <v>39.58867025958109</v>
+        <v>165.6014918580186</v>
       </c>
       <c r="H40" t="n">
         <v>145.2993925240062</v>
@@ -25611,7 +25611,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25636,19 +25636,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>65.92082661437024</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>406.868631411775</v>
+        <v>74.23176839152438</v>
       </c>
       <c r="H41" t="n">
         <v>298.6955521866505</v>
       </c>
       <c r="I41" t="n">
-        <v>53.58409768342287</v>
+        <v>53.58409768342288</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>115.5705294868528</v>
       </c>
       <c r="T41" t="n">
-        <v>211.7992677899944</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.0222025461392</v>
       </c>
       <c r="V41" t="n">
-        <v>49.98986823321513</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>34.65218166114454</v>
+        <v>34.65218166114477</v>
       </c>
       <c r="X41" t="n">
-        <v>52.92121599602285</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>59.88893896835401</v>
+        <v>315.6291968082982</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38.74491181800909</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>38.42036116886675</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>117.7021820926707</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.85384836195698</v>
+        <v>22.85384836195699</v>
       </c>
       <c r="S42" t="n">
         <v>112.089903338178</v>
@@ -25763,7 +25763,7 @@
         <v>170.5502999724113</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8863909897115</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>102.5922889849455</v>
       </c>
       <c r="J43" t="n">
-        <v>13.96650363601579</v>
+        <v>13.9665036360158</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.25217770443501</v>
+        <v>17.25217770443504</v>
       </c>
       <c r="R43" t="n">
-        <v>79.04628532410493</v>
+        <v>79.04628532410494</v>
       </c>
       <c r="S43" t="n">
         <v>183.8830936859346</v>
@@ -25842,7 +25842,7 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U43" t="n">
-        <v>0.7659965390948522</v>
+        <v>0.7659965390949992</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25867,25 +25867,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>56.60688346184781</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>48.94985447524806</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>323.6756426334554</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>80.08863106507135</v>
       </c>
       <c r="G44" t="n">
-        <v>325.6813502535325</v>
+        <v>406.868631411775</v>
       </c>
       <c r="H44" t="n">
-        <v>298.6955521866505</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>53.58409768342287</v>
+        <v>53.58409768342288</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.29067597793528</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>115.5705294868528</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25930,7 +25930,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>52.92121599602285</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>140.6970734649433</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.85384836195698</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>112.089903338178</v>
@@ -26000,7 +26000,7 @@
         <v>170.5502999724113</v>
       </c>
       <c r="U45" t="n">
-        <v>117.8432251029861</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>154.4842764496966</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>165.6014918580186</v>
@@ -26046,7 +26046,7 @@
         <v>102.5922889849455</v>
       </c>
       <c r="J46" t="n">
-        <v>13.96650363601579</v>
+        <v>13.9665036360158</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.25217770443501</v>
+        <v>17.25217770443504</v>
       </c>
       <c r="R46" t="n">
-        <v>79.04628532410493</v>
+        <v>79.04628532410494</v>
       </c>
       <c r="S46" t="n">
         <v>183.8830936859346</v>
@@ -26079,13 +26079,13 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5314935766891</v>
+        <v>0.7659965390949992</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>160525.1439756077</v>
+        <v>160525.143975608</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>196597.0416957187</v>
+        <v>196597.0416957186</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>276205.2108440266</v>
+        <v>276205.2108440267</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>276205.2108440264</v>
+        <v>276205.2108440266</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415052.8982982634</v>
+        <v>415052.8982982635</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415052.8982982634</v>
+        <v>415052.8982982633</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415052.8982982633</v>
+        <v>415052.8982982634</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>415052.8982982634</v>
+        <v>415052.8982982633</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59803.48501052044</v>
+        <v>59803.48501052058</v>
       </c>
       <c r="C2" t="n">
-        <v>73242.03514154223</v>
+        <v>73242.03514154222</v>
       </c>
       <c r="D2" t="n">
-        <v>84496.51498376959</v>
+        <v>84496.51498376956</v>
       </c>
       <c r="E2" t="n">
         <v>102899.9805105197</v>
@@ -26328,13 +26328,13 @@
         <v>102899.9805105197</v>
       </c>
       <c r="G2" t="n">
+        <v>102899.9805105197</v>
+      </c>
+      <c r="H2" t="n">
         <v>102899.9805105196</v>
       </c>
-      <c r="H2" t="n">
-        <v>102899.9805105197</v>
-      </c>
       <c r="I2" t="n">
-        <v>154627.5503464117</v>
+        <v>154627.5503464118</v>
       </c>
       <c r="J2" t="n">
         <v>154627.5503464118</v>
@@ -26343,19 +26343,19 @@
         <v>154627.5503464118</v>
       </c>
       <c r="L2" t="n">
-        <v>154627.5503464117</v>
+        <v>154627.5503464118</v>
       </c>
       <c r="M2" t="n">
         <v>154627.5503464118</v>
       </c>
       <c r="N2" t="n">
+        <v>154627.5503464119</v>
+      </c>
+      <c r="O2" t="n">
+        <v>154627.5503464117</v>
+      </c>
+      <c r="P2" t="n">
         <v>154627.5503464118</v>
-      </c>
-      <c r="O2" t="n">
-        <v>154627.5503464118</v>
-      </c>
-      <c r="P2" t="n">
-        <v>154627.5503464117</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204388.9161824896</v>
+        <v>204388.91618249</v>
       </c>
       <c r="C3" t="n">
-        <v>52209.77728050115</v>
+        <v>52209.77728050073</v>
       </c>
       <c r="D3" t="n">
-        <v>42463.12874659784</v>
+        <v>42463.12874659782</v>
       </c>
       <c r="E3" t="n">
-        <v>65868.04718407331</v>
+        <v>65868.04718407366</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>192601.9595275131</v>
+        <v>192601.959527513</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8330.166889562146</v>
+        <v>8330.166889562042</v>
       </c>
       <c r="L3" t="n">
-        <v>7052.49776206703</v>
+        <v>7052.497762067019</v>
       </c>
       <c r="M3" t="n">
-        <v>15365.7727610101</v>
+        <v>15365.77276101017</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20.12645726155355</v>
+        <v>20.12645726155354</v>
       </c>
       <c r="D4" t="n">
-        <v>43.64462950941397</v>
+        <v>43.64462950941392</v>
       </c>
       <c r="E4" t="n">
-        <v>89.57007674701687</v>
+        <v>89.57007674701711</v>
       </c>
       <c r="F4" t="n">
-        <v>89.57007674701687</v>
+        <v>89.57007674701697</v>
       </c>
       <c r="G4" t="n">
-        <v>89.57007674701687</v>
+        <v>89.57007674701691</v>
       </c>
       <c r="H4" t="n">
-        <v>89.57007674701687</v>
+        <v>89.57007674701691</v>
       </c>
       <c r="I4" t="n">
         <v>235.9678686324524</v>
@@ -26456,10 +26456,10 @@
         <v>235.9678686324524</v>
       </c>
       <c r="O4" t="n">
-        <v>235.9678686324524</v>
+        <v>235.9678686324523</v>
       </c>
       <c r="P4" t="n">
-        <v>235.9678686324524</v>
+        <v>235.9678686324523</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38251.52928777244</v>
+        <v>38251.52928777246</v>
       </c>
       <c r="C5" t="n">
         <v>41219.0040738134</v>
       </c>
       <c r="D5" t="n">
-        <v>43773.78778279355</v>
+        <v>43773.78778279354</v>
       </c>
       <c r="E5" t="n">
+        <v>15182.83026754882</v>
+      </c>
+      <c r="F5" t="n">
         <v>15182.8302675488</v>
       </c>
-      <c r="F5" t="n">
-        <v>15182.83026754879</v>
-      </c>
       <c r="G5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.8302675488</v>
       </c>
       <c r="H5" t="n">
         <v>15182.8302675488</v>
@@ -26499,7 +26499,7 @@
         <v>31950.999411582</v>
       </c>
       <c r="L5" t="n">
-        <v>31950.99941158201</v>
+        <v>31950.999411582</v>
       </c>
       <c r="M5" t="n">
         <v>31950.999411582</v>
@@ -26508,10 +26508,10 @@
         <v>31950.999411582</v>
       </c>
       <c r="O5" t="n">
-        <v>31950.99941158201</v>
+        <v>31950.99941158199</v>
       </c>
       <c r="P5" t="n">
-        <v>31950.99941158201</v>
+        <v>31950.99941158199</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-182836.9604597416</v>
+        <v>-184325.5270564095</v>
       </c>
       <c r="C6" t="n">
-        <v>-20206.87267003387</v>
+        <v>-21624.71005548524</v>
       </c>
       <c r="D6" t="n">
-        <v>-1784.04617513121</v>
+        <v>-3142.649456150209</v>
       </c>
       <c r="E6" t="n">
-        <v>21759.53298215054</v>
+        <v>20497.79004600888</v>
       </c>
       <c r="F6" t="n">
-        <v>87627.58016622387</v>
+        <v>86365.8372300825</v>
       </c>
       <c r="G6" t="n">
-        <v>87627.58016622382</v>
+        <v>86365.8372300825</v>
       </c>
       <c r="H6" t="n">
-        <v>87627.58016622388</v>
+        <v>86365.83723008248</v>
       </c>
       <c r="I6" t="n">
-        <v>-70161.37646131584</v>
+        <v>-71150.8690298997</v>
       </c>
       <c r="J6" t="n">
-        <v>122440.5830661973</v>
+        <v>121451.0904976133</v>
       </c>
       <c r="K6" t="n">
-        <v>114110.4161766352</v>
+        <v>113120.9236080513</v>
       </c>
       <c r="L6" t="n">
-        <v>115388.0853041302</v>
+        <v>114398.5927355463</v>
       </c>
       <c r="M6" t="n">
-        <v>107074.8103051873</v>
+        <v>106085.3177366031</v>
       </c>
       <c r="N6" t="n">
-        <v>122440.5830661973</v>
+        <v>121451.0904976134</v>
       </c>
       <c r="O6" t="n">
-        <v>122440.5830661973</v>
+        <v>121451.0904976133</v>
       </c>
       <c r="P6" t="n">
-        <v>122440.5830661972</v>
+        <v>121451.0904976133</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.1068480629564</v>
+        <v>212.1068480629568</v>
       </c>
       <c r="C3" t="n">
         <v>257.9589631239192</v>
@@ -26746,10 +26746,10 @@
         <v>297.4343571967077</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
       <c r="F3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="G3" t="n">
         <v>356.5054615933877</v>
@@ -26776,10 +26776,10 @@
         <v>537.9210155940714</v>
       </c>
       <c r="O3" t="n">
-        <v>537.9210155940714</v>
+        <v>537.9210155940713</v>
       </c>
       <c r="P3" t="n">
-        <v>537.9210155940714</v>
+        <v>537.9210155940713</v>
       </c>
     </row>
     <row r="4">
@@ -26792,46 +26792,46 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>32.36675456763106</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="D4" t="n">
-        <v>60.23221703791657</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="G4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="H4" t="n">
         <v>121.8916316581077</v>
       </c>
       <c r="I4" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="J4" t="n">
         <v>332.6368630202508</v>
       </c>
       <c r="K4" t="n">
+        <v>332.6368630202507</v>
+      </c>
+      <c r="L4" t="n">
         <v>332.6368630202508</v>
       </c>
-      <c r="L4" t="n">
-        <v>332.6368630202509</v>
-      </c>
       <c r="M4" t="n">
+        <v>332.6368630202507</v>
+      </c>
+      <c r="N4" t="n">
         <v>332.6368630202508</v>
       </c>
-      <c r="N4" t="n">
-        <v>332.6368630202507</v>
-      </c>
       <c r="O4" t="n">
-        <v>332.6368630202509</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="P4" t="n">
-        <v>332.6368630202509</v>
+        <v>332.6368630202506</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.1068480629564</v>
+        <v>212.1068480629568</v>
       </c>
       <c r="C3" t="n">
-        <v>45.85211506096283</v>
+        <v>45.85211506096246</v>
       </c>
       <c r="D3" t="n">
         <v>39.47539407278845</v>
       </c>
       <c r="E3" t="n">
-        <v>59.07110439667997</v>
+        <v>59.07110439668031</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>181.4155540006837</v>
+        <v>181.4155540006836</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>32.3667545676313</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="D4" t="n">
-        <v>27.86546247028551</v>
+        <v>27.86546247028546</v>
       </c>
       <c r="E4" t="n">
-        <v>61.65941462019114</v>
+        <v>61.65941462019138</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>210.7452313621432</v>
+        <v>210.745231362143</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>32.36675456763135</v>
+        <v>32.36675456763095</v>
       </c>
       <c r="L4" t="n">
-        <v>27.86546247028551</v>
+        <v>27.86546247028546</v>
       </c>
       <c r="M4" t="n">
-        <v>61.65941462019109</v>
+        <v>61.65941462019138</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>32.3667545676313</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="L4" t="n">
-        <v>27.86546247028551</v>
+        <v>27.86546247028546</v>
       </c>
       <c r="M4" t="n">
-        <v>61.65941462019114</v>
+        <v>61.65941462019138</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8526908464842463</v>
+        <v>0.8526908464842476</v>
       </c>
       <c r="H2" t="n">
-        <v>8.732620131556789</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I2" t="n">
-        <v>32.87336385908394</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J2" t="n">
-        <v>72.37106973179236</v>
+        <v>72.37106973179249</v>
       </c>
       <c r="K2" t="n">
-        <v>108.4654732634705</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L2" t="n">
-        <v>134.5610107565628</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M2" t="n">
-        <v>149.725051597727</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377839</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>143.6688148605727</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P2" t="n">
-        <v>122.6180095879928</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q2" t="n">
-        <v>92.08101864827572</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R2" t="n">
-        <v>53.56284138546609</v>
+        <v>53.56284138546617</v>
       </c>
       <c r="S2" t="n">
-        <v>19.43069266425978</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T2" t="n">
-        <v>3.73265418048479</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06821526771873969</v>
+        <v>0.0682152677187398</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4562298241354157</v>
+        <v>0.4562298241354165</v>
       </c>
       <c r="H3" t="n">
-        <v>4.406219617307832</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I3" t="n">
-        <v>15.70791280466234</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J3" t="n">
-        <v>43.10371334079382</v>
+        <v>43.1037133407939</v>
       </c>
       <c r="K3" t="n">
-        <v>73.67111155786668</v>
+        <v>73.67111155786679</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931169</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888866</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931443</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.2373368492857</v>
+        <v>58.2373368492858</v>
       </c>
       <c r="R3" t="n">
-        <v>28.32626925640766</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S3" t="n">
-        <v>8.474268882515283</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83892635254582</v>
+        <v>1.838926352545823</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03001512000890894</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3824877588020525</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H4" t="n">
-        <v>3.400663891894615</v>
+        <v>3.400663891894621</v>
       </c>
       <c r="I4" t="n">
-        <v>11.50245005561082</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J4" t="n">
-        <v>27.04188454730511</v>
+        <v>27.04188454730516</v>
       </c>
       <c r="K4" t="n">
-        <v>44.43812324991119</v>
+        <v>44.43812324991126</v>
       </c>
       <c r="L4" t="n">
-        <v>56.86549824953426</v>
+        <v>56.86549824953435</v>
       </c>
       <c r="M4" t="n">
-        <v>59.95669477294356</v>
+        <v>59.95669477294365</v>
       </c>
       <c r="N4" t="n">
-        <v>58.53105858104504</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O4" t="n">
-        <v>54.06290612594832</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P4" t="n">
-        <v>46.26015584638641</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.02813405750642</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R4" t="n">
-        <v>17.19804050031774</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S4" t="n">
-        <v>6.665718487486677</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63426587851786</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02086296866193016</v>
+        <v>0.0208629686619302</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31299,7 +31299,7 @@
         <v>182.0918061653583</v>
       </c>
       <c r="N5" t="n">
-        <v>181.4852459054152</v>
+        <v>181.4852459054151</v>
       </c>
       <c r="O5" t="n">
         <v>174.7263648162623</v>
@@ -31369,13 +31369,13 @@
         <v>52.42164174200325</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333333</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>102.2497248441016</v>
       </c>
       <c r="M6" t="n">
-        <v>124.753876616943</v>
+        <v>124.7538766169429</v>
       </c>
       <c r="N6" t="n">
         <v>117.7388674217977</v>
@@ -31518,10 +31518,10 @@
         <v>1.195716008830985</v>
       </c>
       <c r="H8" t="n">
-        <v>12.24562657544033</v>
+        <v>12.24562657544032</v>
       </c>
       <c r="I8" t="n">
-        <v>46.09784143045659</v>
+        <v>46.09784143045658</v>
       </c>
       <c r="J8" t="n">
         <v>101.4849016045189</v>
@@ -31536,10 +31536,10 @@
         <v>209.9572686356438</v>
       </c>
       <c r="N8" t="n">
-        <v>209.3507083757007</v>
+        <v>209.3507083757006</v>
       </c>
       <c r="O8" t="n">
-        <v>201.4646956829218</v>
+        <v>201.4646956829217</v>
       </c>
       <c r="P8" t="n">
         <v>171.9454567149068</v>
@@ -31548,16 +31548,16 @@
         <v>129.1238771486471</v>
       </c>
       <c r="R8" t="n">
-        <v>75.11039573972941</v>
+        <v>75.1103957397294</v>
       </c>
       <c r="S8" t="n">
-        <v>27.2473785512361</v>
+        <v>27.24737855123609</v>
       </c>
       <c r="T8" t="n">
-        <v>5.234246828657639</v>
+        <v>5.234246828657638</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09565728070647878</v>
+        <v>0.09565728070647875</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,37 +31594,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6397644664231071</v>
+        <v>0.639764466423107</v>
       </c>
       <c r="H9" t="n">
-        <v>6.178777873086325</v>
+        <v>6.178777873086324</v>
       </c>
       <c r="I9" t="n">
-        <v>22.02697833956751</v>
+        <v>22.0269783395675</v>
       </c>
       <c r="J9" t="n">
         <v>60.44371215447435</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>103.3079314048225</v>
       </c>
       <c r="L9" t="n">
         <v>138.9102627643681</v>
       </c>
       <c r="M9" t="n">
-        <v>127.1879615190275</v>
+        <v>152.6193390872284</v>
       </c>
       <c r="N9" t="n">
-        <v>145.6043298920832</v>
+        <v>106.461956252393</v>
       </c>
       <c r="O9" t="n">
-        <v>152.216241272168</v>
+        <v>152.2162412721679</v>
       </c>
       <c r="P9" t="n">
         <v>122.1669532417949</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.66537294200927</v>
+        <v>81.66537294200926</v>
       </c>
       <c r="R9" t="n">
         <v>39.72151660826977</v>
@@ -31633,10 +31633,10 @@
         <v>11.88334436535902</v>
       </c>
       <c r="T9" t="n">
-        <v>2.578699757205418</v>
+        <v>2.578699757205417</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04208976752783601</v>
+        <v>0.042089767527836</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,43 +31673,43 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5363570375678335</v>
+        <v>0.5363570375678334</v>
       </c>
       <c r="H10" t="n">
-        <v>4.768701661284923</v>
+        <v>4.768701661284922</v>
       </c>
       <c r="I10" t="n">
         <v>16.1297189115854</v>
       </c>
       <c r="J10" t="n">
-        <v>37.92044255604583</v>
+        <v>37.92044255604582</v>
       </c>
       <c r="K10" t="n">
-        <v>62.31493581924465</v>
+        <v>62.31493581924463</v>
       </c>
       <c r="L10" t="n">
-        <v>79.74166356713046</v>
+        <v>79.74166356713044</v>
       </c>
       <c r="M10" t="n">
-        <v>84.07640362529229</v>
+        <v>84.07640362529227</v>
       </c>
       <c r="N10" t="n">
-        <v>82.07725466708499</v>
+        <v>82.07725466708496</v>
       </c>
       <c r="O10" t="n">
-        <v>75.8116292736789</v>
+        <v>75.81162927367888</v>
       </c>
       <c r="P10" t="n">
-        <v>64.86994570729505</v>
+        <v>64.86994570729503</v>
       </c>
       <c r="Q10" t="n">
         <v>44.91258793670286</v>
       </c>
       <c r="R10" t="n">
-        <v>24.11656279827731</v>
+        <v>24.1165627982773</v>
       </c>
       <c r="S10" t="n">
-        <v>9.347240372886695</v>
+        <v>9.347240372886693</v>
       </c>
       <c r="T10" t="n">
         <v>2.291707342335288</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I11" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J11" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K11" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L11" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M11" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N11" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O11" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P11" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R11" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S11" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T11" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U11" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H12" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I12" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J12" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K12" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L12" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M12" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N12" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O12" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P12" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R12" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S12" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T12" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H13" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I13" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J13" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K13" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L13" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M13" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N13" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O13" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P13" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R13" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S13" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T13" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,16 +31995,16 @@
         <v>14.67763440620414</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K14" t="n">
         <v>182.3068607443614</v>
       </c>
       <c r="L14" t="n">
-        <v>226.1677814287378</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M14" t="n">
         <v>251.6552347055676</v>
@@ -32013,7 +32013,7 @@
         <v>255.7272795005514</v>
       </c>
       <c r="O14" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P14" t="n">
         <v>206.094195010879</v>
@@ -32022,13 +32022,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835436</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752493</v>
       </c>
       <c r="T14" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150974</v>
       </c>
       <c r="U14" t="n">
         <v>0.114655022824004</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329473</v>
       </c>
       <c r="H15" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741887</v>
       </c>
       <c r="I15" t="n">
         <v>26.40158371234051</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K15" t="n">
         <v>123.8251092404128</v>
@@ -32089,7 +32089,7 @@
         <v>194.2954765683963</v>
       </c>
       <c r="N15" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O15" t="n">
         <v>182.4467148590236</v>
@@ -32098,19 +32098,19 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088641</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S15" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T15" t="n">
-        <v>3.090835086833237</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453603</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339779</v>
       </c>
       <c r="H16" t="n">
-        <v>5.715776089153006</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I16" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K16" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L16" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800433</v>
       </c>
       <c r="M16" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N16" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428688</v>
       </c>
       <c r="O16" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350811</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833487</v>
+        <v>77.7532567383349</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R16" t="n">
-        <v>28.90616414821139</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S16" t="n">
         <v>11.20362245695941</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U16" t="n">
         <v>0.03506611097639883</v>
@@ -32259,13 +32259,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835435</v>
       </c>
       <c r="S17" t="n">
         <v>32.65876665752492</v>
       </c>
       <c r="T17" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150972</v>
       </c>
       <c r="U17" t="n">
         <v>0.114655022824004</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329472</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741886</v>
       </c>
       <c r="I18" t="n">
         <v>26.40158371234051</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K18" t="n">
         <v>123.8251092404128</v>
@@ -32326,7 +32326,7 @@
         <v>194.2954765683963</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O18" t="n">
         <v>182.4467148590236</v>
@@ -32335,19 +32335,19 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088639</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807546</v>
       </c>
       <c r="S18" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T18" t="n">
-        <v>3.090835086833237</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453602</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339778</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153006</v>
+        <v>5.715776089153007</v>
       </c>
       <c r="I19" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K19" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L19" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800431</v>
       </c>
       <c r="M19" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428687</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350808</v>
+        <v>90.8679822435081</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833488</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R19" t="n">
-        <v>28.90616414821139</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S19" t="n">
         <v>11.20362245695941</v>
@@ -32496,13 +32496,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835435</v>
       </c>
       <c r="S20" t="n">
         <v>32.65876665752492</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150972</v>
       </c>
       <c r="U20" t="n">
         <v>0.114655022824004</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329472</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741886</v>
       </c>
       <c r="I21" t="n">
         <v>26.40158371234051</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K21" t="n">
         <v>123.8251092404128</v>
@@ -32563,7 +32563,7 @@
         <v>194.2954765683963</v>
       </c>
       <c r="N21" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O21" t="n">
         <v>182.4467148590236</v>
@@ -32572,19 +32572,19 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088639</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807546</v>
       </c>
       <c r="S21" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T21" t="n">
-        <v>3.090835086833237</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453602</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339778</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153006</v>
+        <v>5.715776089153007</v>
       </c>
       <c r="I22" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J22" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K22" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L22" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800431</v>
       </c>
       <c r="M22" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428687</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350808</v>
+        <v>90.8679822435081</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833488</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821139</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S22" t="n">
         <v>11.20362245695941</v>
@@ -34128,40 +34128,40 @@
         <v>22.14666774252374</v>
       </c>
       <c r="I41" t="n">
-        <v>83.36964805503695</v>
+        <v>83.36964805503693</v>
       </c>
       <c r="J41" t="n">
-        <v>183.5391911448335</v>
+        <v>183.5391911448334</v>
       </c>
       <c r="K41" t="n">
-        <v>275.0776698989924</v>
+        <v>275.0776698989923</v>
       </c>
       <c r="L41" t="n">
-        <v>341.2581735411515</v>
+        <v>341.2581735411514</v>
       </c>
       <c r="M41" t="n">
-        <v>379.7154714751055</v>
+        <v>379.7154714751054</v>
       </c>
       <c r="N41" t="n">
-        <v>385.859664783876</v>
+        <v>385.8596647838759</v>
       </c>
       <c r="O41" t="n">
-        <v>364.35633976352</v>
+        <v>364.3563397635199</v>
       </c>
       <c r="P41" t="n">
         <v>310.9697063063194</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.5252987848614</v>
+        <v>233.5252987848613</v>
       </c>
       <c r="R41" t="n">
         <v>135.8399236012506</v>
       </c>
       <c r="S41" t="n">
-        <v>49.27789002150715</v>
+        <v>49.27789002150714</v>
       </c>
       <c r="T41" t="n">
-        <v>9.466328626183103</v>
+        <v>9.466328626183101</v>
       </c>
       <c r="U41" t="n">
         <v>0.1729997236081434</v>
@@ -34207,43 +34207,43 @@
         <v>11.1745478899825</v>
       </c>
       <c r="I42" t="n">
-        <v>39.83660351333454</v>
+        <v>39.83660351333453</v>
       </c>
       <c r="J42" t="n">
         <v>109.3146848765273</v>
       </c>
       <c r="K42" t="n">
-        <v>186.8362078408201</v>
+        <v>186.83620784082</v>
       </c>
       <c r="L42" t="n">
-        <v>251.224338462118</v>
+        <v>251.2243384621179</v>
       </c>
       <c r="M42" t="n">
-        <v>293.1669534987689</v>
+        <v>293.1669534987688</v>
       </c>
       <c r="N42" t="n">
-        <v>300.9262104123853</v>
+        <v>300.9262104123852</v>
       </c>
       <c r="O42" t="n">
-        <v>275.2886918201094</v>
+        <v>275.2886918201093</v>
       </c>
       <c r="P42" t="n">
         <v>220.9434450654215</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.6948418665081</v>
+        <v>147.694841866508</v>
       </c>
       <c r="R42" t="n">
-        <v>71.8378292146196</v>
+        <v>71.83782921461959</v>
       </c>
       <c r="S42" t="n">
         <v>21.4914669909518</v>
       </c>
       <c r="T42" t="n">
-        <v>4.663673710669353</v>
+        <v>4.663673710669352</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07612089843312334</v>
+        <v>0.07612089843312332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9700215035302925</v>
+        <v>0.9700215035302924</v>
       </c>
       <c r="H43" t="n">
-        <v>8.624373004114789</v>
+        <v>8.624373004114787</v>
       </c>
       <c r="I43" t="n">
         <v>29.17119212434735</v>
       </c>
       <c r="J43" t="n">
-        <v>68.58052029959168</v>
+        <v>68.58052029959167</v>
       </c>
       <c r="K43" t="n">
         <v>112.6988619556103</v>
       </c>
       <c r="L43" t="n">
-        <v>144.2157424430401</v>
+        <v>144.21574244304</v>
       </c>
       <c r="M43" t="n">
         <v>152.0552798670257</v>
@@ -34310,19 +34310,19 @@
         <v>117.3196916633364</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.22607335470478</v>
+        <v>81.22607335470475</v>
       </c>
       <c r="R43" t="n">
-        <v>43.61569414964387</v>
+        <v>43.61569414964386</v>
       </c>
       <c r="S43" t="n">
-        <v>16.90482929334155</v>
+        <v>16.90482929334154</v>
       </c>
       <c r="T43" t="n">
-        <v>4.144637333265794</v>
+        <v>4.144637333265793</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05291026382892511</v>
+        <v>0.05291026382892509</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>22.14666774252374</v>
       </c>
       <c r="I44" t="n">
-        <v>83.36964805503695</v>
+        <v>83.36964805503693</v>
       </c>
       <c r="J44" t="n">
-        <v>183.5391911448335</v>
+        <v>183.5391911448334</v>
       </c>
       <c r="K44" t="n">
-        <v>275.0776698989924</v>
+        <v>275.0776698989923</v>
       </c>
       <c r="L44" t="n">
-        <v>341.2581735411515</v>
+        <v>341.2581735411518</v>
       </c>
       <c r="M44" t="n">
-        <v>379.7154714751055</v>
+        <v>379.7154714751054</v>
       </c>
       <c r="N44" t="n">
-        <v>385.859664783876</v>
+        <v>385.8596647838759</v>
       </c>
       <c r="O44" t="n">
-        <v>364.35633976352</v>
+        <v>364.3563397635199</v>
       </c>
       <c r="P44" t="n">
         <v>310.9697063063194</v>
       </c>
       <c r="Q44" t="n">
-        <v>233.5252987848618</v>
+        <v>233.5252987848613</v>
       </c>
       <c r="R44" t="n">
         <v>135.8399236012506</v>
       </c>
       <c r="S44" t="n">
-        <v>49.27789002150715</v>
+        <v>49.27789002150714</v>
       </c>
       <c r="T44" t="n">
-        <v>9.466328626183103</v>
+        <v>9.466328626183101</v>
       </c>
       <c r="U44" t="n">
         <v>0.1729997236081434</v>
@@ -34444,43 +34444,43 @@
         <v>11.1745478899825</v>
       </c>
       <c r="I45" t="n">
-        <v>39.83660351333454</v>
+        <v>39.83660351333453</v>
       </c>
       <c r="J45" t="n">
         <v>109.3146848765273</v>
       </c>
       <c r="K45" t="n">
-        <v>186.8362078408201</v>
+        <v>186.83620784082</v>
       </c>
       <c r="L45" t="n">
-        <v>251.224338462118</v>
+        <v>251.2243384621179</v>
       </c>
       <c r="M45" t="n">
-        <v>293.1669534987689</v>
+        <v>293.1669534987688</v>
       </c>
       <c r="N45" t="n">
-        <v>300.9262104123853</v>
+        <v>300.9262104123852</v>
       </c>
       <c r="O45" t="n">
-        <v>275.2886918201094</v>
+        <v>275.2886918201093</v>
       </c>
       <c r="P45" t="n">
         <v>220.9434450654215</v>
       </c>
       <c r="Q45" t="n">
-        <v>147.6948418665081</v>
+        <v>147.694841866508</v>
       </c>
       <c r="R45" t="n">
-        <v>71.8378292146196</v>
+        <v>71.83782921461959</v>
       </c>
       <c r="S45" t="n">
         <v>21.4914669909518</v>
       </c>
       <c r="T45" t="n">
-        <v>4.663673710669353</v>
+        <v>4.663673710669352</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07612089843312334</v>
+        <v>0.07612089843312332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9700215035302925</v>
+        <v>0.9700215035302924</v>
       </c>
       <c r="H46" t="n">
-        <v>8.624373004114789</v>
+        <v>8.624373004114787</v>
       </c>
       <c r="I46" t="n">
         <v>29.17119212434735</v>
       </c>
       <c r="J46" t="n">
-        <v>68.58052029959168</v>
+        <v>68.58052029959167</v>
       </c>
       <c r="K46" t="n">
         <v>112.6988619556103</v>
       </c>
       <c r="L46" t="n">
-        <v>144.2157424430401</v>
+        <v>144.21574244304</v>
       </c>
       <c r="M46" t="n">
         <v>152.0552798670257</v>
@@ -34547,19 +34547,19 @@
         <v>117.3196916633364</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.22607335470478</v>
+        <v>81.22607335470475</v>
       </c>
       <c r="R46" t="n">
-        <v>43.61569414964387</v>
+        <v>43.61569414964386</v>
       </c>
       <c r="S46" t="n">
-        <v>16.90482929334155</v>
+        <v>16.90482929334154</v>
       </c>
       <c r="T46" t="n">
-        <v>4.144637333265794</v>
+        <v>4.144637333265793</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05291026382892511</v>
+        <v>0.05291026382892509</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>10.4015149858013</v>
       </c>
       <c r="M5" t="n">
-        <v>32.36675456763106</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N5" t="n">
-        <v>32.36675456763106</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="O5" t="n">
         <v>25.16252739216588</v>
@@ -35020,16 +35020,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>12.18937798718336</v>
+        <v>12.18937798718334</v>
       </c>
       <c r="M6" t="n">
-        <v>32.36675456763106</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N6" t="n">
-        <v>32.36675456763106</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="O6" t="n">
-        <v>32.36675456763106</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P6" t="n">
         <v>18.86962892114946</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>9.041157079097161</v>
+        <v>9.041157079097133</v>
       </c>
       <c r="L8" t="n">
-        <v>35.44478433310411</v>
+        <v>35.44478433310408</v>
       </c>
       <c r="M8" t="n">
-        <v>60.23221703791657</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="N8" t="n">
-        <v>60.23221703791657</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="O8" t="n">
-        <v>51.90085825882537</v>
+        <v>51.90085825882534</v>
       </c>
       <c r="P8" t="n">
-        <v>21.64400947398158</v>
+        <v>21.64400947398155</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>13.71099607148916</v>
       </c>
       <c r="L9" t="n">
         <v>48.84991590744984</v>
       </c>
       <c r="M9" t="n">
-        <v>34.80083946971561</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="N9" t="n">
-        <v>60.23221703791657</v>
+        <v>21.0898433982263</v>
       </c>
       <c r="O9" t="n">
-        <v>59.52868238327908</v>
+        <v>59.52868238327905</v>
       </c>
       <c r="P9" t="n">
-        <v>35.08358842248026</v>
+        <v>35.08358842248025</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K11" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L11" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M11" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N11" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O11" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P11" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L12" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M12" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N12" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O12" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P12" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>7.903490235199413</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M13" t="n">
-        <v>10.47239902839742</v>
+        <v>10.4723990283975</v>
       </c>
       <c r="N13" t="n">
-        <v>15.38237044188529</v>
+        <v>15.38237044188537</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8712322498102765</v>
+        <v>0.8712322498103475</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264158</v>
       </c>
       <c r="K14" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512406</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824611</v>
+        <v>72.9196116982462</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O14" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637766</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995382</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707948</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440874</v>
+        <v>76.4377934844088</v>
       </c>
       <c r="M15" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N15" t="n">
         <v>114.0657868347607</v>
       </c>
       <c r="O15" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013476</v>
       </c>
       <c r="P15" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972414</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.903490235199413</v>
+        <v>7.903490235199442</v>
       </c>
       <c r="M16" t="n">
-        <v>10.47239902839742</v>
+        <v>10.47239902839745</v>
       </c>
       <c r="N16" t="n">
-        <v>15.38237044188529</v>
+        <v>15.38237044188531</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8712322498102765</v>
+        <v>0.8712322498103049</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264144</v>
       </c>
       <c r="K17" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512403</v>
       </c>
       <c r="L17" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824614</v>
       </c>
       <c r="M17" t="n">
         <v>101.9301831078403</v>
@@ -35898,13 +35898,13 @@
         <v>106.6087881627673</v>
       </c>
       <c r="O17" t="n">
-        <v>91.91218103637758</v>
+        <v>91.9121810363776</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995379</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142874</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707945</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440877</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N18" t="n">
         <v>114.0657868347607</v>
       </c>
       <c r="O18" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013473</v>
       </c>
       <c r="P18" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156193</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972386</v>
+        <v>6.8961388649724</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>7.903490235199413</v>
+        <v>7.903490235199428</v>
       </c>
       <c r="M19" t="n">
-        <v>10.47239902839742</v>
+        <v>10.47239902839743</v>
       </c>
       <c r="N19" t="n">
-        <v>15.38237044188529</v>
+        <v>15.3823704418853</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8712322498102765</v>
+        <v>0.8712322498102907</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264144</v>
       </c>
       <c r="K20" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512403</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824614</v>
       </c>
       <c r="M20" t="n">
         <v>101.9301831078403</v>
@@ -36135,13 +36135,13 @@
         <v>106.6087881627673</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637758</v>
+        <v>91.9121810363776</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995379</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142874</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707945</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440877</v>
       </c>
       <c r="M21" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N21" t="n">
         <v>114.0657868347607</v>
       </c>
       <c r="O21" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013473</v>
       </c>
       <c r="P21" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156193</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972386</v>
+        <v>6.8961388649724</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7.903490235199413</v>
+        <v>7.903490235199428</v>
       </c>
       <c r="M22" t="n">
-        <v>10.47239902839742</v>
+        <v>10.47239902839743</v>
       </c>
       <c r="N22" t="n">
-        <v>15.38237044188529</v>
+        <v>15.3823704418853</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8712322498102765</v>
+        <v>0.8712322498102907</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>65.85935320248737</v>
+        <v>65.85935320248731</v>
       </c>
       <c r="K41" t="n">
         <v>132.019266719755</v>
       </c>
       <c r="L41" t="n">
-        <v>188.0100038106598</v>
+        <v>188.0100038106597</v>
       </c>
       <c r="M41" t="n">
-        <v>229.9904198773782</v>
+        <v>229.9904198773781</v>
       </c>
       <c r="N41" t="n">
-        <v>236.7411734460919</v>
+        <v>236.7411734460918</v>
       </c>
       <c r="O41" t="n">
-        <v>214.7925023394236</v>
+        <v>214.7925023394235</v>
       </c>
       <c r="P41" t="n">
         <v>160.6682590653942</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.02660036646924</v>
+        <v>89.02660036646918</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>26.87022754319395</v>
+        <v>26.87022754319393</v>
       </c>
       <c r="K42" t="n">
-        <v>97.23927250748672</v>
+        <v>97.23927250748669</v>
       </c>
       <c r="L42" t="n">
-        <v>161.1639916051998</v>
+        <v>161.1639916051997</v>
       </c>
       <c r="M42" t="n">
         <v>200.7798314494569</v>
@@ -37873,13 +37873,13 @@
         <v>215.5540975582186</v>
       </c>
       <c r="O42" t="n">
-        <v>182.6011329312205</v>
+        <v>182.6011329312204</v>
       </c>
       <c r="P42" t="n">
-        <v>133.8600802461069</v>
+        <v>133.8600802461068</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.70668871059407</v>
+        <v>56.70668871059404</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>28.84024414476234</v>
+        <v>28.84024414476231</v>
       </c>
       <c r="L43" t="n">
-        <v>56.54070286023517</v>
+        <v>56.54070286023514</v>
       </c>
       <c r="M43" t="n">
-        <v>61.75352030108247</v>
+        <v>61.75352030108245</v>
       </c>
       <c r="N43" t="n">
-        <v>65.44414126964776</v>
+        <v>65.44414126964773</v>
       </c>
       <c r="O43" t="n">
-        <v>47.1113803416567</v>
+        <v>47.11138034165667</v>
       </c>
       <c r="P43" t="n">
-        <v>27.79648903139049</v>
+        <v>27.79648903139046</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>65.85935320248737</v>
+        <v>65.85935320248731</v>
       </c>
       <c r="K44" t="n">
         <v>132.019266719755</v>
       </c>
       <c r="L44" t="n">
-        <v>188.0100038106598</v>
+        <v>188.0100038106602</v>
       </c>
       <c r="M44" t="n">
-        <v>229.9904198773782</v>
+        <v>229.9904198773781</v>
       </c>
       <c r="N44" t="n">
-        <v>236.7411734460919</v>
+        <v>236.7411734460918</v>
       </c>
       <c r="O44" t="n">
-        <v>214.7925023394236</v>
+        <v>214.7925023394235</v>
       </c>
       <c r="P44" t="n">
         <v>160.6682590653942</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.02660036646967</v>
+        <v>89.02660036646918</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>26.87022754319395</v>
+        <v>26.87022754319393</v>
       </c>
       <c r="K45" t="n">
-        <v>97.23927250748672</v>
+        <v>97.23927250748669</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1639916051998</v>
+        <v>161.1639916051997</v>
       </c>
       <c r="M45" t="n">
         <v>200.7798314494569</v>
@@ -38110,13 +38110,13 @@
         <v>215.5540975582186</v>
       </c>
       <c r="O45" t="n">
-        <v>182.6011329312205</v>
+        <v>182.6011329312204</v>
       </c>
       <c r="P45" t="n">
-        <v>133.8600802461069</v>
+        <v>133.8600802461068</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.70668871059407</v>
+        <v>56.70668871059404</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>28.84024414476234</v>
+        <v>28.84024414476231</v>
       </c>
       <c r="L46" t="n">
-        <v>56.54070286023517</v>
+        <v>56.54070286023514</v>
       </c>
       <c r="M46" t="n">
-        <v>61.75352030108247</v>
+        <v>61.75352030108245</v>
       </c>
       <c r="N46" t="n">
-        <v>65.44414126964776</v>
+        <v>65.44414126964773</v>
       </c>
       <c r="O46" t="n">
-        <v>47.1113803416567</v>
+        <v>47.11138034165667</v>
       </c>
       <c r="P46" t="n">
-        <v>27.79648903139049</v>
+        <v>27.79648903139046</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
